--- a/NEW HR/MERJILLA, JEANETTE.xlsx
+++ b/NEW HR/MERJILLA, JEANETTE.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\DESKTOP-44REB32\Users\ASUS\Desktop\LEAVECARD\NEW HR\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DOLE\Desktop\LEAVE-CARD\NEW HR\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="203" uniqueCount="96">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="205" uniqueCount="97">
   <si>
     <t>PERIOD</t>
   </si>
@@ -324,6 +324,9 @@
   </si>
   <si>
     <t>2/2,6,9/2023</t>
+  </si>
+  <si>
+    <t>3/3,4/2023</t>
   </si>
 </sst>
 </file>
@@ -711,14 +714,17 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="14" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -728,9 +734,6 @@
     </xf>
     <xf numFmtId="166" fontId="1" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1623,7 +1626,7 @@
     <sheetView tabSelected="1" topLeftCell="A2" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="3690" topLeftCell="A87" activePane="bottomLeft"/>
       <selection activeCell="I10" sqref="I10"/>
-      <selection pane="bottomLeft" activeCell="E97" sqref="E97"/>
+      <selection pane="bottomLeft" activeCell="B98" sqref="B98"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1653,14 +1656,14 @@
         <v>14</v>
       </c>
       <c r="E2" s="11"/>
-      <c r="F2" s="50"/>
-      <c r="G2" s="50"/>
+      <c r="F2" s="53"/>
+      <c r="G2" s="53"/>
       <c r="H2" s="29" t="s">
         <v>10</v>
       </c>
       <c r="I2" s="26"/>
-      <c r="J2" s="51"/>
-      <c r="K2" s="52"/>
+      <c r="J2" s="50"/>
+      <c r="K2" s="51"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="19" t="s">
@@ -1671,14 +1674,14 @@
       <c r="D3" s="23" t="s">
         <v>13</v>
       </c>
-      <c r="F3" s="53"/>
-      <c r="G3" s="51"/>
+      <c r="F3" s="54"/>
+      <c r="G3" s="50"/>
       <c r="H3" s="27" t="s">
         <v>11</v>
       </c>
       <c r="I3" s="27"/>
-      <c r="J3" s="54"/>
-      <c r="K3" s="55"/>
+      <c r="J3" s="55"/>
+      <c r="K3" s="56"/>
     </row>
     <row r="4" spans="1:11" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="19" t="s">
@@ -1691,14 +1694,14 @@
       <c r="D4" s="23" t="s">
         <v>12</v>
       </c>
-      <c r="F4" s="51"/>
-      <c r="G4" s="51"/>
+      <c r="F4" s="50"/>
+      <c r="G4" s="50"/>
       <c r="H4" s="27" t="s">
         <v>17</v>
       </c>
       <c r="I4" s="27"/>
-      <c r="J4" s="51"/>
-      <c r="K4" s="52"/>
+      <c r="J4" s="50"/>
+      <c r="K4" s="51"/>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="17"/>
@@ -1724,18 +1727,18 @@
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="15"/>
       <c r="B7" s="15"/>
-      <c r="C7" s="56" t="s">
+      <c r="C7" s="52" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="56"/>
-      <c r="E7" s="56"/>
-      <c r="F7" s="56"/>
-      <c r="G7" s="56" t="s">
+      <c r="D7" s="52"/>
+      <c r="E7" s="52"/>
+      <c r="F7" s="52"/>
+      <c r="G7" s="52" t="s">
         <v>7</v>
       </c>
-      <c r="H7" s="56"/>
-      <c r="I7" s="56"/>
-      <c r="J7" s="56"/>
+      <c r="H7" s="52"/>
+      <c r="I7" s="52"/>
+      <c r="J7" s="52"/>
       <c r="K7" s="15"/>
     </row>
     <row r="8" spans="1:11" ht="45" x14ac:dyDescent="0.25">
@@ -1782,7 +1785,7 @@
       <c r="D9" s="12"/>
       <c r="E9" s="14">
         <f>SUM(Table13[EARNED])-SUM(Table13[Absence Undertime W/ Pay])</f>
-        <v>11.25</v>
+        <v>12.5</v>
       </c>
       <c r="F9" s="12"/>
       <c r="G9" s="14" t="str">
@@ -1792,7 +1795,7 @@
       <c r="H9" s="12"/>
       <c r="I9" s="14">
         <f>SUM(Table13[[EARNED ]])-SUM(Table13[Absence Undertime  W/ Pay])</f>
-        <v>35.25</v>
+        <v>34.5</v>
       </c>
       <c r="J9" s="12"/>
       <c r="K9" s="21"/>
@@ -3731,19 +3734,27 @@
       <c r="A97" s="24">
         <v>44986</v>
       </c>
-      <c r="B97" s="12"/>
-      <c r="C97" s="14"/>
+      <c r="B97" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="C97" s="14">
+        <v>1.25</v>
+      </c>
       <c r="D97" s="12"/>
       <c r="E97" s="9"/>
       <c r="F97" s="12"/>
-      <c r="G97" s="14" t="str">
-        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H97" s="12"/>
+      <c r="G97" s="14">
+        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H97" s="12">
+        <v>2</v>
+      </c>
       <c r="I97" s="9"/>
       <c r="J97" s="12"/>
-      <c r="K97" s="21"/>
+      <c r="K97" s="21" t="s">
+        <v>96</v>
+      </c>
     </row>
     <row r="98" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A98" s="24">
@@ -4319,17 +4330,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="F4:G4"/>
-    <mergeCell ref="J4:K4"/>
-    <mergeCell ref="C7:F7"/>
-    <mergeCell ref="G7:J7"/>
     <mergeCell ref="B2:C2"/>
     <mergeCell ref="F2:G2"/>
     <mergeCell ref="J2:K2"/>
     <mergeCell ref="B3:C3"/>
     <mergeCell ref="F3:G3"/>
     <mergeCell ref="J3:K3"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="F4:G4"/>
+    <mergeCell ref="J4:K4"/>
+    <mergeCell ref="C7:F7"/>
+    <mergeCell ref="G7:J7"/>
   </mergeCells>
   <dataValidations disablePrompts="1" count="2">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4">
@@ -4397,14 +4408,14 @@
         <v>14</v>
       </c>
       <c r="E2" s="11"/>
-      <c r="F2" s="50"/>
-      <c r="G2" s="50"/>
+      <c r="F2" s="53"/>
+      <c r="G2" s="53"/>
       <c r="H2" s="29" t="s">
         <v>10</v>
       </c>
       <c r="I2" s="26"/>
-      <c r="J2" s="51"/>
-      <c r="K2" s="52"/>
+      <c r="J2" s="50"/>
+      <c r="K2" s="51"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="19" t="s">
@@ -4415,14 +4426,14 @@
       <c r="D3" s="23" t="s">
         <v>13</v>
       </c>
-      <c r="F3" s="53"/>
-      <c r="G3" s="51"/>
+      <c r="F3" s="54"/>
+      <c r="G3" s="50"/>
       <c r="H3" s="27" t="s">
         <v>11</v>
       </c>
       <c r="I3" s="27"/>
-      <c r="J3" s="54"/>
-      <c r="K3" s="55"/>
+      <c r="J3" s="55"/>
+      <c r="K3" s="56"/>
     </row>
     <row r="4" spans="1:11" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="19" t="s">
@@ -4435,14 +4446,14 @@
       <c r="D4" s="23" t="s">
         <v>12</v>
       </c>
-      <c r="F4" s="51"/>
-      <c r="G4" s="51"/>
+      <c r="F4" s="50"/>
+      <c r="G4" s="50"/>
       <c r="H4" s="27" t="s">
         <v>17</v>
       </c>
       <c r="I4" s="27"/>
-      <c r="J4" s="51"/>
-      <c r="K4" s="52"/>
+      <c r="J4" s="50"/>
+      <c r="K4" s="51"/>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="17"/>
@@ -4468,18 +4479,18 @@
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="15"/>
       <c r="B7" s="15"/>
-      <c r="C7" s="56" t="s">
+      <c r="C7" s="52" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="56"/>
-      <c r="E7" s="56"/>
-      <c r="F7" s="56"/>
-      <c r="G7" s="56" t="s">
+      <c r="D7" s="52"/>
+      <c r="E7" s="52"/>
+      <c r="F7" s="52"/>
+      <c r="G7" s="52" t="s">
         <v>7</v>
       </c>
-      <c r="H7" s="56"/>
-      <c r="I7" s="56"/>
-      <c r="J7" s="56"/>
+      <c r="H7" s="52"/>
+      <c r="I7" s="52"/>
+      <c r="J7" s="52"/>
       <c r="K7" s="15"/>
     </row>
     <row r="8" spans="1:11" ht="45" x14ac:dyDescent="0.25">

--- a/NEW HR/MERJILLA, JEANETTE.xlsx
+++ b/NEW HR/MERJILLA, JEANETTE.xlsx
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="205" uniqueCount="97">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="206" uniqueCount="97">
   <si>
     <t>PERIOD</t>
   </si>
@@ -714,17 +714,14 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="14" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -734,6 +731,9 @@
     </xf>
     <xf numFmtId="166" fontId="1" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1624,9 +1624,9 @@
   <dimension ref="A2:K130"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A2" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="3690" topLeftCell="A87" activePane="bottomLeft"/>
+      <pane ySplit="3690" topLeftCell="A86" activePane="bottomLeft"/>
       <selection activeCell="I10" sqref="I10"/>
-      <selection pane="bottomLeft" activeCell="B98" sqref="B98"/>
+      <selection pane="bottomLeft" activeCell="C98" sqref="C98"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1656,14 +1656,14 @@
         <v>14</v>
       </c>
       <c r="E2" s="11"/>
-      <c r="F2" s="53"/>
-      <c r="G2" s="53"/>
+      <c r="F2" s="50"/>
+      <c r="G2" s="50"/>
       <c r="H2" s="29" t="s">
         <v>10</v>
       </c>
       <c r="I2" s="26"/>
-      <c r="J2" s="50"/>
-      <c r="K2" s="51"/>
+      <c r="J2" s="51"/>
+      <c r="K2" s="52"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="19" t="s">
@@ -1674,14 +1674,14 @@
       <c r="D3" s="23" t="s">
         <v>13</v>
       </c>
-      <c r="F3" s="54"/>
-      <c r="G3" s="50"/>
+      <c r="F3" s="53"/>
+      <c r="G3" s="51"/>
       <c r="H3" s="27" t="s">
         <v>11</v>
       </c>
       <c r="I3" s="27"/>
-      <c r="J3" s="55"/>
-      <c r="K3" s="56"/>
+      <c r="J3" s="54"/>
+      <c r="K3" s="55"/>
     </row>
     <row r="4" spans="1:11" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="19" t="s">
@@ -1694,14 +1694,14 @@
       <c r="D4" s="23" t="s">
         <v>12</v>
       </c>
-      <c r="F4" s="50"/>
-      <c r="G4" s="50"/>
+      <c r="F4" s="51"/>
+      <c r="G4" s="51"/>
       <c r="H4" s="27" t="s">
         <v>17</v>
       </c>
       <c r="I4" s="27"/>
-      <c r="J4" s="50"/>
-      <c r="K4" s="51"/>
+      <c r="J4" s="51"/>
+      <c r="K4" s="52"/>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="17"/>
@@ -1727,18 +1727,18 @@
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="15"/>
       <c r="B7" s="15"/>
-      <c r="C7" s="52" t="s">
+      <c r="C7" s="56" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="52"/>
-      <c r="E7" s="52"/>
-      <c r="F7" s="52"/>
-      <c r="G7" s="52" t="s">
+      <c r="D7" s="56"/>
+      <c r="E7" s="56"/>
+      <c r="F7" s="56"/>
+      <c r="G7" s="56" t="s">
         <v>7</v>
       </c>
-      <c r="H7" s="52"/>
-      <c r="I7" s="52"/>
-      <c r="J7" s="52"/>
+      <c r="H7" s="56"/>
+      <c r="I7" s="56"/>
+      <c r="J7" s="56"/>
       <c r="K7" s="15"/>
     </row>
     <row r="8" spans="1:11" ht="45" x14ac:dyDescent="0.25">
@@ -1785,7 +1785,7 @@
       <c r="D9" s="12"/>
       <c r="E9" s="14">
         <f>SUM(Table13[EARNED])-SUM(Table13[Absence Undertime W/ Pay])</f>
-        <v>12.5</v>
+        <v>13.75</v>
       </c>
       <c r="F9" s="12"/>
       <c r="G9" s="14" t="str">
@@ -1795,7 +1795,7 @@
       <c r="H9" s="12"/>
       <c r="I9" s="14">
         <f>SUM(Table13[[EARNED ]])-SUM(Table13[Absence Undertime  W/ Pay])</f>
-        <v>34.5</v>
+        <v>34.75</v>
       </c>
       <c r="J9" s="12"/>
       <c r="K9" s="21"/>
@@ -3761,13 +3761,15 @@
         <v>45017</v>
       </c>
       <c r="B98" s="12"/>
-      <c r="C98" s="14"/>
+      <c r="C98" s="14">
+        <v>1.25</v>
+      </c>
       <c r="D98" s="12"/>
       <c r="E98" s="9"/>
       <c r="F98" s="12"/>
-      <c r="G98" s="14" t="str">
-        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G98" s="14">
+        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H98" s="12"/>
       <c r="I98" s="9"/>
@@ -3778,7 +3780,9 @@
       <c r="A99" s="24">
         <v>45047</v>
       </c>
-      <c r="B99" s="12"/>
+      <c r="B99" s="12" t="s">
+        <v>47</v>
+      </c>
       <c r="C99" s="14"/>
       <c r="D99" s="12"/>
       <c r="E99" s="9"/>
@@ -3787,10 +3791,14 @@
         <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H99" s="12"/>
+      <c r="H99" s="12">
+        <v>1</v>
+      </c>
       <c r="I99" s="9"/>
       <c r="J99" s="12"/>
-      <c r="K99" s="21"/>
+      <c r="K99" s="39">
+        <v>45056</v>
+      </c>
     </row>
     <row r="100" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A100" s="24">
@@ -4330,17 +4338,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="F4:G4"/>
+    <mergeCell ref="J4:K4"/>
+    <mergeCell ref="C7:F7"/>
+    <mergeCell ref="G7:J7"/>
     <mergeCell ref="B2:C2"/>
     <mergeCell ref="F2:G2"/>
     <mergeCell ref="J2:K2"/>
     <mergeCell ref="B3:C3"/>
     <mergeCell ref="F3:G3"/>
     <mergeCell ref="J3:K3"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="F4:G4"/>
-    <mergeCell ref="J4:K4"/>
-    <mergeCell ref="C7:F7"/>
-    <mergeCell ref="G7:J7"/>
   </mergeCells>
   <dataValidations disablePrompts="1" count="2">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4">
@@ -4408,14 +4416,14 @@
         <v>14</v>
       </c>
       <c r="E2" s="11"/>
-      <c r="F2" s="53"/>
-      <c r="G2" s="53"/>
+      <c r="F2" s="50"/>
+      <c r="G2" s="50"/>
       <c r="H2" s="29" t="s">
         <v>10</v>
       </c>
       <c r="I2" s="26"/>
-      <c r="J2" s="50"/>
-      <c r="K2" s="51"/>
+      <c r="J2" s="51"/>
+      <c r="K2" s="52"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="19" t="s">
@@ -4426,14 +4434,14 @@
       <c r="D3" s="23" t="s">
         <v>13</v>
       </c>
-      <c r="F3" s="54"/>
-      <c r="G3" s="50"/>
+      <c r="F3" s="53"/>
+      <c r="G3" s="51"/>
       <c r="H3" s="27" t="s">
         <v>11</v>
       </c>
       <c r="I3" s="27"/>
-      <c r="J3" s="55"/>
-      <c r="K3" s="56"/>
+      <c r="J3" s="54"/>
+      <c r="K3" s="55"/>
     </row>
     <row r="4" spans="1:11" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="19" t="s">
@@ -4446,14 +4454,14 @@
       <c r="D4" s="23" t="s">
         <v>12</v>
       </c>
-      <c r="F4" s="50"/>
-      <c r="G4" s="50"/>
+      <c r="F4" s="51"/>
+      <c r="G4" s="51"/>
       <c r="H4" s="27" t="s">
         <v>17</v>
       </c>
       <c r="I4" s="27"/>
-      <c r="J4" s="50"/>
-      <c r="K4" s="51"/>
+      <c r="J4" s="51"/>
+      <c r="K4" s="52"/>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="17"/>
@@ -4479,18 +4487,18 @@
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="15"/>
       <c r="B7" s="15"/>
-      <c r="C7" s="52" t="s">
+      <c r="C7" s="56" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="52"/>
-      <c r="E7" s="52"/>
-      <c r="F7" s="52"/>
-      <c r="G7" s="52" t="s">
+      <c r="D7" s="56"/>
+      <c r="E7" s="56"/>
+      <c r="F7" s="56"/>
+      <c r="G7" s="56" t="s">
         <v>7</v>
       </c>
-      <c r="H7" s="52"/>
-      <c r="I7" s="52"/>
-      <c r="J7" s="52"/>
+      <c r="H7" s="56"/>
+      <c r="I7" s="56"/>
+      <c r="J7" s="56"/>
       <c r="K7" s="15"/>
     </row>
     <row r="8" spans="1:11" ht="45" x14ac:dyDescent="0.25">

--- a/NEW HR/MERJILLA, JEANETTE.xlsx
+++ b/NEW HR/MERJILLA, JEANETTE.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DOLE\Desktop\LEAVE-CARD\NEW HR\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\DESKTOP-JHL336T\Users\ASUS\Desktop\LEAVE-CARD\NEW HR\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="2018 LEAVE CREDITS" sheetId="3" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="206" uniqueCount="97">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="207" uniqueCount="97">
   <si>
     <t>PERIOD</t>
   </si>
@@ -714,14 +714,17 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="14" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -731,9 +734,6 @@
     </xf>
     <xf numFmtId="166" fontId="1" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1623,10 +1623,10 @@
   </sheetPr>
   <dimension ref="A2:K130"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A2" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="3690" topLeftCell="A86" activePane="bottomLeft"/>
       <selection activeCell="I10" sqref="I10"/>
-      <selection pane="bottomLeft" activeCell="C98" sqref="C98"/>
+      <selection pane="bottomLeft" activeCell="H101" sqref="H101"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1656,14 +1656,14 @@
         <v>14</v>
       </c>
       <c r="E2" s="11"/>
-      <c r="F2" s="50"/>
-      <c r="G2" s="50"/>
+      <c r="F2" s="53"/>
+      <c r="G2" s="53"/>
       <c r="H2" s="29" t="s">
         <v>10</v>
       </c>
       <c r="I2" s="26"/>
-      <c r="J2" s="51"/>
-      <c r="K2" s="52"/>
+      <c r="J2" s="50"/>
+      <c r="K2" s="51"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="19" t="s">
@@ -1674,14 +1674,14 @@
       <c r="D3" s="23" t="s">
         <v>13</v>
       </c>
-      <c r="F3" s="53"/>
-      <c r="G3" s="51"/>
+      <c r="F3" s="54"/>
+      <c r="G3" s="50"/>
       <c r="H3" s="27" t="s">
         <v>11</v>
       </c>
       <c r="I3" s="27"/>
-      <c r="J3" s="54"/>
-      <c r="K3" s="55"/>
+      <c r="J3" s="55"/>
+      <c r="K3" s="56"/>
     </row>
     <row r="4" spans="1:11" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="19" t="s">
@@ -1694,14 +1694,14 @@
       <c r="D4" s="23" t="s">
         <v>12</v>
       </c>
-      <c r="F4" s="51"/>
-      <c r="G4" s="51"/>
+      <c r="F4" s="50"/>
+      <c r="G4" s="50"/>
       <c r="H4" s="27" t="s">
         <v>17</v>
       </c>
       <c r="I4" s="27"/>
-      <c r="J4" s="51"/>
-      <c r="K4" s="52"/>
+      <c r="J4" s="50"/>
+      <c r="K4" s="51"/>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="17"/>
@@ -1727,18 +1727,18 @@
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="15"/>
       <c r="B7" s="15"/>
-      <c r="C7" s="56" t="s">
+      <c r="C7" s="52" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="56"/>
-      <c r="E7" s="56"/>
-      <c r="F7" s="56"/>
-      <c r="G7" s="56" t="s">
+      <c r="D7" s="52"/>
+      <c r="E7" s="52"/>
+      <c r="F7" s="52"/>
+      <c r="G7" s="52" t="s">
         <v>7</v>
       </c>
-      <c r="H7" s="56"/>
-      <c r="I7" s="56"/>
-      <c r="J7" s="56"/>
+      <c r="H7" s="52"/>
+      <c r="I7" s="52"/>
+      <c r="J7" s="52"/>
       <c r="K7" s="15"/>
     </row>
     <row r="8" spans="1:11" ht="45" x14ac:dyDescent="0.25">
@@ -1785,7 +1785,7 @@
       <c r="D9" s="12"/>
       <c r="E9" s="14">
         <f>SUM(Table13[EARNED])-SUM(Table13[Absence Undertime W/ Pay])</f>
-        <v>13.75</v>
+        <v>15</v>
       </c>
       <c r="F9" s="12"/>
       <c r="G9" s="14" t="str">
@@ -1795,7 +1795,7 @@
       <c r="H9" s="12"/>
       <c r="I9" s="14">
         <f>SUM(Table13[[EARNED ]])-SUM(Table13[Absence Undertime  W/ Pay])</f>
-        <v>34.75</v>
+        <v>35</v>
       </c>
       <c r="J9" s="12"/>
       <c r="K9" s="21"/>
@@ -3783,13 +3783,15 @@
       <c r="B99" s="12" t="s">
         <v>47</v>
       </c>
-      <c r="C99" s="14"/>
+      <c r="C99" s="14">
+        <v>1.25</v>
+      </c>
       <c r="D99" s="12"/>
       <c r="E99" s="9"/>
       <c r="F99" s="12"/>
-      <c r="G99" s="14" t="str">
-        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G99" s="14">
+        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H99" s="12">
         <v>1</v>
@@ -3804,7 +3806,9 @@
       <c r="A100" s="24">
         <v>45078</v>
       </c>
-      <c r="B100" s="12"/>
+      <c r="B100" s="12" t="s">
+        <v>47</v>
+      </c>
       <c r="C100" s="14"/>
       <c r="D100" s="12"/>
       <c r="E100" s="9"/>
@@ -3813,7 +3817,9 @@
         <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H100" s="12"/>
+      <c r="H100" s="12">
+        <v>1</v>
+      </c>
       <c r="I100" s="9"/>
       <c r="J100" s="12"/>
       <c r="K100" s="21"/>
@@ -4338,17 +4344,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="F4:G4"/>
-    <mergeCell ref="J4:K4"/>
-    <mergeCell ref="C7:F7"/>
-    <mergeCell ref="G7:J7"/>
     <mergeCell ref="B2:C2"/>
     <mergeCell ref="F2:G2"/>
     <mergeCell ref="J2:K2"/>
     <mergeCell ref="B3:C3"/>
     <mergeCell ref="F3:G3"/>
     <mergeCell ref="J3:K3"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="F4:G4"/>
+    <mergeCell ref="J4:K4"/>
+    <mergeCell ref="C7:F7"/>
+    <mergeCell ref="G7:J7"/>
   </mergeCells>
   <dataValidations disablePrompts="1" count="2">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4">
@@ -4383,7 +4389,7 @@
   </sheetPr>
   <dimension ref="A2:K87"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="3690" topLeftCell="A38" activePane="bottomLeft"/>
       <selection activeCell="B4" sqref="B4:C4"/>
       <selection pane="bottomLeft" activeCell="A51" sqref="A51"/>
@@ -4416,14 +4422,14 @@
         <v>14</v>
       </c>
       <c r="E2" s="11"/>
-      <c r="F2" s="50"/>
-      <c r="G2" s="50"/>
+      <c r="F2" s="53"/>
+      <c r="G2" s="53"/>
       <c r="H2" s="29" t="s">
         <v>10</v>
       </c>
       <c r="I2" s="26"/>
-      <c r="J2" s="51"/>
-      <c r="K2" s="52"/>
+      <c r="J2" s="50"/>
+      <c r="K2" s="51"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="19" t="s">
@@ -4434,14 +4440,14 @@
       <c r="D3" s="23" t="s">
         <v>13</v>
       </c>
-      <c r="F3" s="53"/>
-      <c r="G3" s="51"/>
+      <c r="F3" s="54"/>
+      <c r="G3" s="50"/>
       <c r="H3" s="27" t="s">
         <v>11</v>
       </c>
       <c r="I3" s="27"/>
-      <c r="J3" s="54"/>
-      <c r="K3" s="55"/>
+      <c r="J3" s="55"/>
+      <c r="K3" s="56"/>
     </row>
     <row r="4" spans="1:11" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="19" t="s">
@@ -4454,14 +4460,14 @@
       <c r="D4" s="23" t="s">
         <v>12</v>
       </c>
-      <c r="F4" s="51"/>
-      <c r="G4" s="51"/>
+      <c r="F4" s="50"/>
+      <c r="G4" s="50"/>
       <c r="H4" s="27" t="s">
         <v>17</v>
       </c>
       <c r="I4" s="27"/>
-      <c r="J4" s="51"/>
-      <c r="K4" s="52"/>
+      <c r="J4" s="50"/>
+      <c r="K4" s="51"/>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="17"/>
@@ -4487,18 +4493,18 @@
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="15"/>
       <c r="B7" s="15"/>
-      <c r="C7" s="56" t="s">
+      <c r="C7" s="52" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="56"/>
-      <c r="E7" s="56"/>
-      <c r="F7" s="56"/>
-      <c r="G7" s="56" t="s">
+      <c r="D7" s="52"/>
+      <c r="E7" s="52"/>
+      <c r="F7" s="52"/>
+      <c r="G7" s="52" t="s">
         <v>7</v>
       </c>
-      <c r="H7" s="56"/>
-      <c r="I7" s="56"/>
-      <c r="J7" s="56"/>
+      <c r="H7" s="52"/>
+      <c r="I7" s="52"/>
+      <c r="J7" s="52"/>
       <c r="K7" s="15"/>
     </row>
     <row r="8" spans="1:11" ht="45" x14ac:dyDescent="0.25">

--- a/NEW HR/MERJILLA, JEANETTE.xlsx
+++ b/NEW HR/MERJILLA, JEANETTE.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570" activeTab="1"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570"/>
   </bookViews>
   <sheets>
     <sheet name="2018 LEAVE CREDITS" sheetId="3" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="207" uniqueCount="97">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="209" uniqueCount="97">
   <si>
     <t>PERIOD</t>
   </si>
@@ -714,17 +714,14 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="14" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -734,6 +731,9 @@
     </xf>
     <xf numFmtId="166" fontId="1" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1623,8 +1623,8 @@
   </sheetPr>
   <dimension ref="A2:K130"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="3690" topLeftCell="A86" activePane="bottomLeft"/>
+    <sheetView tabSelected="1" topLeftCell="A2" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="3690" topLeftCell="A104" activePane="bottomLeft"/>
       <selection activeCell="I10" sqref="I10"/>
       <selection pane="bottomLeft" activeCell="H101" sqref="H101"/>
     </sheetView>
@@ -1656,14 +1656,14 @@
         <v>14</v>
       </c>
       <c r="E2" s="11"/>
-      <c r="F2" s="53"/>
-      <c r="G2" s="53"/>
+      <c r="F2" s="50"/>
+      <c r="G2" s="50"/>
       <c r="H2" s="29" t="s">
         <v>10</v>
       </c>
       <c r="I2" s="26"/>
-      <c r="J2" s="50"/>
-      <c r="K2" s="51"/>
+      <c r="J2" s="51"/>
+      <c r="K2" s="52"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="19" t="s">
@@ -1674,14 +1674,14 @@
       <c r="D3" s="23" t="s">
         <v>13</v>
       </c>
-      <c r="F3" s="54"/>
-      <c r="G3" s="50"/>
+      <c r="F3" s="53"/>
+      <c r="G3" s="51"/>
       <c r="H3" s="27" t="s">
         <v>11</v>
       </c>
       <c r="I3" s="27"/>
-      <c r="J3" s="55"/>
-      <c r="K3" s="56"/>
+      <c r="J3" s="54"/>
+      <c r="K3" s="55"/>
     </row>
     <row r="4" spans="1:11" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="19" t="s">
@@ -1694,14 +1694,14 @@
       <c r="D4" s="23" t="s">
         <v>12</v>
       </c>
-      <c r="F4" s="50"/>
-      <c r="G4" s="50"/>
+      <c r="F4" s="51"/>
+      <c r="G4" s="51"/>
       <c r="H4" s="27" t="s">
         <v>17</v>
       </c>
       <c r="I4" s="27"/>
-      <c r="J4" s="50"/>
-      <c r="K4" s="51"/>
+      <c r="J4" s="51"/>
+      <c r="K4" s="52"/>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="17"/>
@@ -1727,18 +1727,18 @@
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="15"/>
       <c r="B7" s="15"/>
-      <c r="C7" s="52" t="s">
+      <c r="C7" s="56" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="52"/>
-      <c r="E7" s="52"/>
-      <c r="F7" s="52"/>
-      <c r="G7" s="52" t="s">
+      <c r="D7" s="56"/>
+      <c r="E7" s="56"/>
+      <c r="F7" s="56"/>
+      <c r="G7" s="56" t="s">
         <v>7</v>
       </c>
-      <c r="H7" s="52"/>
-      <c r="I7" s="52"/>
-      <c r="J7" s="52"/>
+      <c r="H7" s="56"/>
+      <c r="I7" s="56"/>
+      <c r="J7" s="56"/>
       <c r="K7" s="15"/>
     </row>
     <row r="8" spans="1:11" ht="45" x14ac:dyDescent="0.25">
@@ -4344,17 +4344,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="F4:G4"/>
+    <mergeCell ref="J4:K4"/>
+    <mergeCell ref="C7:F7"/>
+    <mergeCell ref="G7:J7"/>
     <mergeCell ref="B2:C2"/>
     <mergeCell ref="F2:G2"/>
     <mergeCell ref="J2:K2"/>
     <mergeCell ref="B3:C3"/>
     <mergeCell ref="F3:G3"/>
     <mergeCell ref="J3:K3"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="F4:G4"/>
-    <mergeCell ref="J4:K4"/>
-    <mergeCell ref="C7:F7"/>
-    <mergeCell ref="G7:J7"/>
   </mergeCells>
   <dataValidations disablePrompts="1" count="2">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4">
@@ -4389,10 +4389,10 @@
   </sheetPr>
   <dimension ref="A2:K87"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="3690" topLeftCell="A38" activePane="bottomLeft"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="3690" topLeftCell="A35" activePane="bottomLeft"/>
       <selection activeCell="B4" sqref="B4:C4"/>
-      <selection pane="bottomLeft" activeCell="A51" sqref="A51"/>
+      <selection pane="bottomLeft" activeCell="K53" sqref="K53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4422,14 +4422,14 @@
         <v>14</v>
       </c>
       <c r="E2" s="11"/>
-      <c r="F2" s="53"/>
-      <c r="G2" s="53"/>
+      <c r="F2" s="50"/>
+      <c r="G2" s="50"/>
       <c r="H2" s="29" t="s">
         <v>10</v>
       </c>
       <c r="I2" s="26"/>
-      <c r="J2" s="50"/>
-      <c r="K2" s="51"/>
+      <c r="J2" s="51"/>
+      <c r="K2" s="52"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="19" t="s">
@@ -4440,14 +4440,14 @@
       <c r="D3" s="23" t="s">
         <v>13</v>
       </c>
-      <c r="F3" s="54"/>
-      <c r="G3" s="50"/>
+      <c r="F3" s="53"/>
+      <c r="G3" s="51"/>
       <c r="H3" s="27" t="s">
         <v>11</v>
       </c>
       <c r="I3" s="27"/>
-      <c r="J3" s="55"/>
-      <c r="K3" s="56"/>
+      <c r="J3" s="54"/>
+      <c r="K3" s="55"/>
     </row>
     <row r="4" spans="1:11" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="19" t="s">
@@ -4460,14 +4460,14 @@
       <c r="D4" s="23" t="s">
         <v>12</v>
       </c>
-      <c r="F4" s="50"/>
-      <c r="G4" s="50"/>
+      <c r="F4" s="51"/>
+      <c r="G4" s="51"/>
       <c r="H4" s="27" t="s">
         <v>17</v>
       </c>
       <c r="I4" s="27"/>
-      <c r="J4" s="50"/>
-      <c r="K4" s="51"/>
+      <c r="J4" s="51"/>
+      <c r="K4" s="52"/>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="17"/>
@@ -4493,18 +4493,18 @@
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="15"/>
       <c r="B7" s="15"/>
-      <c r="C7" s="52" t="s">
+      <c r="C7" s="56" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="52"/>
-      <c r="E7" s="52"/>
-      <c r="F7" s="52"/>
-      <c r="G7" s="52" t="s">
+      <c r="D7" s="56"/>
+      <c r="E7" s="56"/>
+      <c r="F7" s="56"/>
+      <c r="G7" s="56" t="s">
         <v>7</v>
       </c>
-      <c r="H7" s="52"/>
-      <c r="I7" s="52"/>
-      <c r="J7" s="52"/>
+      <c r="H7" s="56"/>
+      <c r="I7" s="56"/>
+      <c r="J7" s="56"/>
       <c r="K7" s="15"/>
     </row>
     <row r="8" spans="1:11" ht="45" x14ac:dyDescent="0.25">
@@ -5461,7 +5461,9 @@
       </c>
     </row>
     <row r="51" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A51" s="38"/>
+      <c r="A51" s="38" t="s">
+        <v>91</v>
+      </c>
       <c r="B51" s="12"/>
       <c r="C51" s="14"/>
       <c r="D51" s="12"/>
@@ -5477,8 +5479,12 @@
       <c r="K51" s="21"/>
     </row>
     <row r="52" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A52" s="24"/>
-      <c r="B52" s="12"/>
+      <c r="A52" s="24">
+        <v>45078</v>
+      </c>
+      <c r="B52" s="12" t="s">
+        <v>50</v>
+      </c>
       <c r="C52" s="14"/>
       <c r="D52" s="12"/>
       <c r="E52" s="9"/>
@@ -5490,7 +5496,9 @@
       <c r="H52" s="12"/>
       <c r="I52" s="9"/>
       <c r="J52" s="12"/>
-      <c r="K52" s="21"/>
+      <c r="K52" s="39">
+        <v>45117</v>
+      </c>
     </row>
     <row r="53" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A53" s="24"/>

--- a/NEW HR/MERJILLA, JEANETTE.xlsx
+++ b/NEW HR/MERJILLA, JEANETTE.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26501"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\DESKTOP-JHL336T\Users\ASUS\Desktop\LEAVE-CARD\NEW HR\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASUS\Desktop\LEAVE-CARD\NEW HR\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D3F97535-698D-4134-8F04-4ED0F84FC5F9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="2018 LEAVE CREDITS" sheetId="3" r:id="rId1"/>
@@ -26,7 +27,7 @@
     <definedName name="_xlnm.Print_Titles" localSheetId="1">'2017 LEAVE BALANCE'!$1:$9</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">'2018 LEAVE CREDITS'!$1:$9</definedName>
   </definedNames>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="209" uniqueCount="97">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="212" uniqueCount="98">
   <si>
     <t>PERIOD</t>
   </si>
@@ -327,12 +328,15 @@
   </si>
   <si>
     <t>3/3,4/2023</t>
+  </si>
+  <si>
+    <t>BDAY 7/19/2023</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="4">
     <numFmt numFmtId="164" formatCode="0.000"/>
     <numFmt numFmtId="165" formatCode="mm/dd/yy;@"/>
@@ -1245,7 +1249,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="Sheet1"/>
@@ -1262,25 +1266,25 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table13" displayName="Table13" ref="A8:K130" totalsRowShown="0" headerRowDxfId="29" headerRowBorderDxfId="28" tableBorderDxfId="27" totalsRowBorderDxfId="26">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table13" displayName="Table13" ref="A8:K131" totalsRowShown="0" headerRowDxfId="29" headerRowBorderDxfId="28" tableBorderDxfId="27" totalsRowBorderDxfId="26">
   <tableColumns count="11">
-    <tableColumn id="1" name="PERIOD" dataDxfId="25"/>
-    <tableColumn id="2" name="PARTICULARS" dataDxfId="24"/>
-    <tableColumn id="3" name="EARNED" dataDxfId="23"/>
-    <tableColumn id="4" name="Absence Undertime W/ Pay" dataDxfId="22"/>
-    <tableColumn id="5" name="BALANCE" dataDxfId="21">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="PERIOD" dataDxfId="25"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="PARTICULARS" dataDxfId="24"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="EARNED" dataDxfId="23"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Absence Undertime W/ Pay" dataDxfId="22"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="BALANCE" dataDxfId="21">
       <calculatedColumnFormula>SUM(Table13[EARNED])-SUM(Table13[Absence Undertime W/ Pay])+CONVERTION!A3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" name="Absence Undertime W/O Pay" dataDxfId="20"/>
-    <tableColumn id="7" name="EARNED " dataDxfId="19">
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Absence Undertime W/O Pay" dataDxfId="20"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="EARNED " dataDxfId="19">
       <calculatedColumnFormula>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" name="Absence Undertime  W/ Pay" dataDxfId="18"/>
-    <tableColumn id="9" name="BALANCE " dataDxfId="17">
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="Absence Undertime  W/ Pay" dataDxfId="18"/>
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="BALANCE " dataDxfId="17">
       <calculatedColumnFormula>SUM(Table13[[EARNED ]])-SUM(Table13[Absence Undertime  W/ Pay])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" name="Absence Undertime  W/O Pay" dataDxfId="16"/>
-    <tableColumn id="11" name="REMARKS" dataDxfId="15"/>
+    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="Absence Undertime  W/O Pay" dataDxfId="16"/>
+    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0000-00000B000000}" name="REMARKS" dataDxfId="15"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
   <extLst>
@@ -1292,25 +1296,25 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A8:K87" totalsRowShown="0" headerRowDxfId="14" headerRowBorderDxfId="13" tableBorderDxfId="12" totalsRowBorderDxfId="11">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Table1" displayName="Table1" ref="A8:K87" totalsRowShown="0" headerRowDxfId="14" headerRowBorderDxfId="13" tableBorderDxfId="12" totalsRowBorderDxfId="11">
   <tableColumns count="11">
-    <tableColumn id="1" name="PERIOD" dataDxfId="10"/>
-    <tableColumn id="2" name="PARTICULARS" dataDxfId="9"/>
-    <tableColumn id="3" name="EARNED" dataDxfId="8"/>
-    <tableColumn id="4" name="Absence Undertime W/ Pay" dataDxfId="7"/>
-    <tableColumn id="5" name="BALANCE" dataDxfId="6">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="PERIOD" dataDxfId="10"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="PARTICULARS" dataDxfId="9"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0100-000003000000}" name="EARNED" dataDxfId="8"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0100-000004000000}" name="Absence Undertime W/ Pay" dataDxfId="7"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0100-000005000000}" name="BALANCE" dataDxfId="6">
       <calculatedColumnFormula>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!A3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" name="Absence Undertime W/O Pay" dataDxfId="5"/>
-    <tableColumn id="7" name="EARNED " dataDxfId="4">
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0100-000006000000}" name="Absence Undertime W/O Pay" dataDxfId="5"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0100-000007000000}" name="EARNED " dataDxfId="4">
       <calculatedColumnFormula>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" name="Absence Undertime  W/ Pay" dataDxfId="3"/>
-    <tableColumn id="9" name="BALANCE " dataDxfId="2">
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0100-000008000000}" name="Absence Undertime  W/ Pay" dataDxfId="3"/>
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0100-000009000000}" name="BALANCE " dataDxfId="2">
       <calculatedColumnFormula>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" name="Absence Undertime  W/O Pay" dataDxfId="1"/>
-    <tableColumn id="11" name="REMARKS" dataDxfId="0"/>
+    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0100-00000A000000}" name="Absence Undertime  W/O Pay" dataDxfId="1"/>
+    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0100-00000B000000}" name="REMARKS" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
   <extLst>
@@ -1617,34 +1621,34 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A2:K130"/>
+  <dimension ref="A2:K131"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A2" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="3690" topLeftCell="A104" activePane="bottomLeft"/>
+      <pane ySplit="3696" topLeftCell="A92" activePane="bottomLeft"/>
       <selection activeCell="I10" sqref="I10"/>
-      <selection pane="bottomLeft" activeCell="H101" sqref="H101"/>
+      <selection pane="bottomLeft" activeCell="B103" sqref="B103"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.28515625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="16.5703125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="12.140625" style="31" customWidth="1"/>
-    <col min="4" max="4" width="12.7109375" style="1" customWidth="1"/>
-    <col min="5" max="5" width="11.7109375" style="1" customWidth="1"/>
-    <col min="6" max="6" width="12.7109375" style="1" customWidth="1"/>
-    <col min="7" max="7" width="12.140625" style="31" customWidth="1"/>
-    <col min="8" max="8" width="12.7109375" style="1" customWidth="1"/>
-    <col min="9" max="9" width="11.7109375" style="1" customWidth="1"/>
-    <col min="10" max="10" width="12.7109375" style="1" customWidth="1"/>
-    <col min="11" max="11" width="24.85546875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="10.33203125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="16.5546875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="12.109375" style="31" customWidth="1"/>
+    <col min="4" max="4" width="12.6640625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="11.6640625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="12.6640625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="12.109375" style="31" customWidth="1"/>
+    <col min="8" max="8" width="12.6640625" style="1" customWidth="1"/>
+    <col min="9" max="9" width="11.6640625" style="1" customWidth="1"/>
+    <col min="10" max="10" width="12.6640625" style="1" customWidth="1"/>
+    <col min="11" max="11" width="24.88671875" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:11" ht="20.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="30" t="s">
         <v>9</v>
       </c>
@@ -1665,7 +1669,7 @@
       <c r="J2" s="51"/>
       <c r="K2" s="52"/>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3" s="19" t="s">
         <v>15</v>
       </c>
@@ -1683,7 +1687,7 @@
       <c r="J3" s="54"/>
       <c r="K3" s="55"/>
     </row>
-    <row r="4" spans="1:11" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="19" t="s">
         <v>16</v>
       </c>
@@ -1703,7 +1707,7 @@
       <c r="J4" s="51"/>
       <c r="K4" s="52"/>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5" s="17"/>
       <c r="H5" s="28" t="s">
         <v>18</v>
@@ -1711,7 +1715,7 @@
       <c r="I5" s="28"/>
       <c r="K5" s="4"/>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A6" s="18"/>
       <c r="B6" s="8"/>
       <c r="C6" s="32"/>
@@ -1724,7 +1728,7 @@
       <c r="J6" s="8"/>
       <c r="K6" s="20"/>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7" s="15"/>
       <c r="B7" s="15"/>
       <c r="C7" s="56" t="s">
@@ -1741,7 +1745,7 @@
       <c r="J7" s="56"/>
       <c r="K7" s="15"/>
     </row>
-    <row r="8" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A8" s="7" t="s">
         <v>0</v>
       </c>
@@ -1776,7 +1780,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A9" s="24"/>
       <c r="B9" s="25" t="s">
         <v>23</v>
@@ -1785,7 +1789,7 @@
       <c r="D9" s="12"/>
       <c r="E9" s="14">
         <f>SUM(Table13[EARNED])-SUM(Table13[Absence Undertime W/ Pay])</f>
-        <v>15</v>
+        <v>15.25</v>
       </c>
       <c r="F9" s="12"/>
       <c r="G9" s="14" t="str">
@@ -1795,12 +1799,12 @@
       <c r="H9" s="12"/>
       <c r="I9" s="14">
         <f>SUM(Table13[[EARNED ]])-SUM(Table13[Absence Undertime  W/ Pay])</f>
-        <v>35</v>
+        <v>36.25</v>
       </c>
       <c r="J9" s="12"/>
       <c r="K9" s="21"/>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A10" s="38" t="s">
         <v>48</v>
       </c>
@@ -1822,7 +1826,7 @@
       <c r="J10" s="12"/>
       <c r="K10" s="21"/>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A11" s="24">
         <v>43101</v>
       </c>
@@ -1842,7 +1846,7 @@
       <c r="J11" s="12"/>
       <c r="K11" s="39"/>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A12" s="24">
         <v>43132</v>
       </c>
@@ -1868,7 +1872,7 @@
         <v>43158</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A13" s="24">
         <v>43160</v>
       </c>
@@ -1888,7 +1892,7 @@
       <c r="J13" s="12"/>
       <c r="K13" s="39"/>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A14" s="24">
         <v>43191</v>
       </c>
@@ -1908,7 +1912,7 @@
       <c r="J14" s="12"/>
       <c r="K14" s="21"/>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A15" s="24">
         <v>43221</v>
       </c>
@@ -1928,7 +1932,7 @@
       <c r="J15" s="12"/>
       <c r="K15" s="21"/>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A16" s="24">
         <v>43252</v>
       </c>
@@ -1948,7 +1952,7 @@
       <c r="J16" s="12"/>
       <c r="K16" s="39"/>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A17" s="24">
         <v>43282</v>
       </c>
@@ -1968,7 +1972,7 @@
       <c r="J17" s="12"/>
       <c r="K17" s="21"/>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A18" s="24">
         <v>43313</v>
       </c>
@@ -1994,7 +1998,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A19" s="24"/>
       <c r="B19" s="21" t="s">
         <v>53</v>
@@ -2016,7 +2020,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A20" s="24">
         <v>43344</v>
       </c>
@@ -2036,7 +2040,7 @@
       <c r="J20" s="12"/>
       <c r="K20" s="21"/>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A21" s="24">
         <v>43374</v>
       </c>
@@ -2062,7 +2066,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A22" s="24">
         <v>43435</v>
       </c>
@@ -2088,7 +2092,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A23" s="38" t="s">
         <v>58</v>
       </c>
@@ -2106,7 +2110,7 @@
       <c r="J23" s="12"/>
       <c r="K23" s="21"/>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A24" s="24">
         <v>43466</v>
       </c>
@@ -2132,7 +2136,7 @@
         <v>43493</v>
       </c>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A25" s="24"/>
       <c r="B25" s="21" t="s">
         <v>49</v>
@@ -2154,7 +2158,7 @@
         <v>43494</v>
       </c>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A26" s="24"/>
       <c r="B26" s="21" t="s">
         <v>44</v>
@@ -2176,7 +2180,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A27" s="24">
         <v>43497</v>
       </c>
@@ -2202,7 +2206,7 @@
         <v>43510</v>
       </c>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A28" s="24"/>
       <c r="B28" s="21" t="s">
         <v>47</v>
@@ -2224,7 +2228,7 @@
         <v>43504</v>
       </c>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A29" s="24">
         <v>43525</v>
       </c>
@@ -2250,7 +2254,7 @@
         <v>43530</v>
       </c>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A30" s="24"/>
       <c r="B30" s="21" t="s">
         <v>47</v>
@@ -2272,7 +2276,7 @@
         <v>43537</v>
       </c>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A31" s="24"/>
       <c r="B31" s="21" t="s">
         <v>47</v>
@@ -2294,7 +2298,7 @@
         <v>43546</v>
       </c>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A32" s="24">
         <v>43556</v>
       </c>
@@ -2314,7 +2318,7 @@
       <c r="J32" s="12"/>
       <c r="K32" s="21"/>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A33" s="24">
         <v>43586</v>
       </c>
@@ -2340,7 +2344,7 @@
         <v>43608</v>
       </c>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A34" s="24">
         <v>43617</v>
       </c>
@@ -2366,7 +2370,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A35" s="24">
         <v>43647</v>
       </c>
@@ -2392,7 +2396,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A36" s="24"/>
       <c r="B36" s="21" t="s">
         <v>63</v>
@@ -2414,7 +2418,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A37" s="24">
         <v>43678</v>
       </c>
@@ -2440,7 +2444,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A38" s="24"/>
       <c r="B38" s="21" t="s">
         <v>47</v>
@@ -2462,7 +2466,7 @@
         <v>43671</v>
       </c>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A39" s="24"/>
       <c r="B39" s="21" t="s">
         <v>47</v>
@@ -2484,7 +2488,7 @@
         <v>43679</v>
       </c>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A40" s="24"/>
       <c r="B40" s="21" t="s">
         <v>65</v>
@@ -2506,7 +2510,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A41" s="24">
         <v>43709</v>
       </c>
@@ -2526,7 +2530,7 @@
       <c r="J41" s="12"/>
       <c r="K41" s="21"/>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A42" s="24">
         <v>43739</v>
       </c>
@@ -2552,7 +2556,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A43" s="24"/>
       <c r="B43" s="21" t="s">
         <v>63</v>
@@ -2574,7 +2578,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A44" s="24"/>
       <c r="B44" s="21" t="s">
         <v>47</v>
@@ -2596,7 +2600,7 @@
         <v>43747</v>
       </c>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A45" s="24"/>
       <c r="B45" s="21" t="s">
         <v>47</v>
@@ -2618,7 +2622,7 @@
         <v>43752</v>
       </c>
     </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A46" s="24">
         <v>43770</v>
       </c>
@@ -2644,7 +2648,7 @@
         <v>43780</v>
       </c>
     </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A47" s="24"/>
       <c r="B47" s="21" t="s">
         <v>47</v>
@@ -2664,7 +2668,7 @@
       <c r="J47" s="12"/>
       <c r="K47" s="21"/>
     </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A48" s="24">
         <v>43800</v>
       </c>
@@ -2690,7 +2694,7 @@
         <v>43805</v>
       </c>
     </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A49" s="38" t="s">
         <v>69</v>
       </c>
@@ -2708,7 +2712,7 @@
       <c r="J49" s="12"/>
       <c r="K49" s="21"/>
     </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A50" s="24">
         <v>43831</v>
       </c>
@@ -2734,7 +2738,7 @@
         <v>43844</v>
       </c>
     </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A51" s="24">
         <v>43862</v>
       </c>
@@ -2760,7 +2764,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A52" s="24">
         <v>43891</v>
       </c>
@@ -2786,7 +2790,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A53" s="24">
         <v>43922</v>
       </c>
@@ -2806,7 +2810,7 @@
       <c r="J53" s="12"/>
       <c r="K53" s="21"/>
     </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A54" s="24">
         <v>43952</v>
       </c>
@@ -2826,7 +2830,7 @@
       <c r="J54" s="12"/>
       <c r="K54" s="21"/>
     </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A55" s="24">
         <v>43983</v>
       </c>
@@ -2852,7 +2856,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A56" s="24">
         <v>44013</v>
       </c>
@@ -2878,7 +2882,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A57" s="24"/>
       <c r="B57" s="21" t="s">
         <v>47</v>
@@ -2900,7 +2904,7 @@
         <v>44006</v>
       </c>
     </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A58" s="24"/>
       <c r="B58" s="21" t="s">
         <v>44</v>
@@ -2922,7 +2926,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A59" s="24"/>
       <c r="B59" s="21" t="s">
         <v>51</v>
@@ -2944,7 +2948,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A60" s="24">
         <v>44044</v>
       </c>
@@ -2970,7 +2974,7 @@
         <v>44054</v>
       </c>
     </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A61" s="24">
         <v>44075</v>
       </c>
@@ -2996,7 +3000,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A62" s="24"/>
       <c r="B62" s="21" t="s">
         <v>51</v>
@@ -3018,7 +3022,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A63" s="24">
         <v>44105</v>
       </c>
@@ -3038,7 +3042,7 @@
       <c r="J63" s="12"/>
       <c r="K63" s="21"/>
     </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A64" s="24">
         <v>44136</v>
       </c>
@@ -3058,7 +3062,7 @@
       <c r="J64" s="12"/>
       <c r="K64" s="21"/>
     </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A65" s="24">
         <v>44166</v>
       </c>
@@ -3084,7 +3088,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A66" s="38" t="s">
         <v>83</v>
       </c>
@@ -3102,7 +3106,7 @@
       <c r="J66" s="12"/>
       <c r="K66" s="21"/>
     </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A67" s="24">
         <v>44197</v>
       </c>
@@ -3122,7 +3126,7 @@
       <c r="J67" s="12"/>
       <c r="K67" s="21"/>
     </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A68" s="24">
         <v>44228</v>
       </c>
@@ -3142,7 +3146,7 @@
       <c r="J68" s="12"/>
       <c r="K68" s="21"/>
     </row>
-    <row r="69" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A69" s="24">
         <v>44256</v>
       </c>
@@ -3166,7 +3170,7 @@
       <c r="J69" s="12"/>
       <c r="K69" s="21"/>
     </row>
-    <row r="70" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A70" s="24">
         <v>44287</v>
       </c>
@@ -3186,7 +3190,7 @@
       <c r="J70" s="12"/>
       <c r="K70" s="21"/>
     </row>
-    <row r="71" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A71" s="24">
         <v>44317</v>
       </c>
@@ -3206,7 +3210,7 @@
       <c r="J71" s="12"/>
       <c r="K71" s="21"/>
     </row>
-    <row r="72" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A72" s="24">
         <v>44348</v>
       </c>
@@ -3226,7 +3230,7 @@
       <c r="J72" s="12"/>
       <c r="K72" s="21"/>
     </row>
-    <row r="73" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A73" s="24">
         <v>44378</v>
       </c>
@@ -3246,7 +3250,7 @@
       <c r="J73" s="12"/>
       <c r="K73" s="21"/>
     </row>
-    <row r="74" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A74" s="24">
         <v>44409</v>
       </c>
@@ -3266,7 +3270,7 @@
       <c r="J74" s="12"/>
       <c r="K74" s="21"/>
     </row>
-    <row r="75" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A75" s="24">
         <v>44440</v>
       </c>
@@ -3286,7 +3290,7 @@
       <c r="J75" s="12"/>
       <c r="K75" s="21"/>
     </row>
-    <row r="76" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A76" s="24">
         <v>44470</v>
       </c>
@@ -3306,7 +3310,7 @@
       <c r="J76" s="12"/>
       <c r="K76" s="21"/>
     </row>
-    <row r="77" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A77" s="24">
         <v>44501</v>
       </c>
@@ -3326,7 +3330,7 @@
       <c r="J77" s="12"/>
       <c r="K77" s="21"/>
     </row>
-    <row r="78" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A78" s="24">
         <v>44531</v>
       </c>
@@ -3346,7 +3350,7 @@
       <c r="J78" s="12"/>
       <c r="K78" s="21"/>
     </row>
-    <row r="79" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A79" s="38" t="s">
         <v>43</v>
       </c>
@@ -3364,7 +3368,7 @@
       <c r="J79" s="12"/>
       <c r="K79" s="21"/>
     </row>
-    <row r="80" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A80" s="24">
         <v>44562</v>
       </c>
@@ -3384,7 +3388,7 @@
       <c r="J80" s="12"/>
       <c r="K80" s="21"/>
     </row>
-    <row r="81" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A81" s="24">
         <v>44593</v>
       </c>
@@ -3404,7 +3408,7 @@
       <c r="J81" s="12"/>
       <c r="K81" s="21"/>
     </row>
-    <row r="82" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A82" s="24">
         <v>44621</v>
       </c>
@@ -3424,7 +3428,7 @@
       <c r="J82" s="12"/>
       <c r="K82" s="21"/>
     </row>
-    <row r="83" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A83" s="24">
         <v>44652</v>
       </c>
@@ -3444,7 +3448,7 @@
       <c r="J83" s="12"/>
       <c r="K83" s="21"/>
     </row>
-    <row r="84" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A84" s="24">
         <v>44682</v>
       </c>
@@ -3464,7 +3468,7 @@
       <c r="J84" s="12"/>
       <c r="K84" s="21"/>
     </row>
-    <row r="85" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A85" s="24">
         <v>44713</v>
       </c>
@@ -3490,7 +3494,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="86" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A86" s="24">
         <v>44743</v>
       </c>
@@ -3510,7 +3514,7 @@
       <c r="J86" s="12"/>
       <c r="K86" s="39"/>
     </row>
-    <row r="87" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A87" s="24">
         <v>44774</v>
       </c>
@@ -3530,7 +3534,7 @@
       <c r="J87" s="12"/>
       <c r="K87" s="39"/>
     </row>
-    <row r="88" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A88" s="24">
         <v>44805</v>
       </c>
@@ -3550,7 +3554,7 @@
       <c r="J88" s="12"/>
       <c r="K88" s="39"/>
     </row>
-    <row r="89" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A89" s="24">
         <v>44835</v>
       </c>
@@ -3570,7 +3574,7 @@
       <c r="J89" s="13"/>
       <c r="K89" s="47"/>
     </row>
-    <row r="90" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A90" s="24">
         <v>44866</v>
       </c>
@@ -3590,7 +3594,7 @@
       <c r="J90" s="12"/>
       <c r="K90" s="21"/>
     </row>
-    <row r="91" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A91" s="24">
         <v>44896</v>
       </c>
@@ -3616,7 +3620,7 @@
         <v>44914</v>
       </c>
     </row>
-    <row r="92" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A92" s="38" t="s">
         <v>91</v>
       </c>
@@ -3634,7 +3638,7 @@
       <c r="J92" s="12"/>
       <c r="K92" s="21"/>
     </row>
-    <row r="93" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A93" s="24">
         <v>44927</v>
       </c>
@@ -3660,7 +3664,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="94" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A94" s="24">
         <v>44958</v>
       </c>
@@ -3686,7 +3690,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="95" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A95" s="24"/>
       <c r="B95" s="12" t="s">
         <v>47</v>
@@ -3708,7 +3712,7 @@
         <v>44958</v>
       </c>
     </row>
-    <row r="96" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A96" s="24"/>
       <c r="B96" s="12" t="s">
         <v>47</v>
@@ -3730,7 +3734,7 @@
         <v>44977</v>
       </c>
     </row>
-    <row r="97" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A97" s="24">
         <v>44986</v>
       </c>
@@ -3756,7 +3760,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="98" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A98" s="24">
         <v>45017</v>
       </c>
@@ -3776,7 +3780,7 @@
       <c r="J98" s="12"/>
       <c r="K98" s="21"/>
     </row>
-    <row r="99" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A99" s="24">
         <v>45047</v>
       </c>
@@ -3802,20 +3806,22 @@
         <v>45056</v>
       </c>
     </row>
-    <row r="100" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A100" s="24">
         <v>45078</v>
       </c>
       <c r="B100" s="12" t="s">
         <v>47</v>
       </c>
-      <c r="C100" s="14"/>
+      <c r="C100" s="14">
+        <v>1.25</v>
+      </c>
       <c r="D100" s="12"/>
       <c r="E100" s="9"/>
       <c r="F100" s="12"/>
-      <c r="G100" s="14" t="str">
-        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G100" s="14">
+        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H100" s="12">
         <v>1</v>
@@ -3824,13 +3830,17 @@
       <c r="J100" s="12"/>
       <c r="K100" s="21"/>
     </row>
-    <row r="101" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A101" s="24">
         <v>45108</v>
       </c>
-      <c r="B101" s="12"/>
+      <c r="B101" s="12" t="s">
+        <v>49</v>
+      </c>
       <c r="C101" s="14"/>
-      <c r="D101" s="12"/>
+      <c r="D101" s="12">
+        <v>1</v>
+      </c>
       <c r="E101" s="9"/>
       <c r="F101" s="12"/>
       <c r="G101" s="14" t="str">
@@ -3840,13 +3850,15 @@
       <c r="H101" s="12"/>
       <c r="I101" s="9"/>
       <c r="J101" s="12"/>
-      <c r="K101" s="21"/>
-    </row>
-    <row r="102" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A102" s="24">
-        <v>45139</v>
-      </c>
-      <c r="B102" s="12"/>
+      <c r="K101" s="39">
+        <v>45125</v>
+      </c>
+    </row>
+    <row r="102" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A102" s="24"/>
+      <c r="B102" s="12" t="s">
+        <v>50</v>
+      </c>
       <c r="C102" s="14"/>
       <c r="D102" s="12"/>
       <c r="E102" s="9"/>
@@ -3858,11 +3870,13 @@
       <c r="H102" s="12"/>
       <c r="I102" s="9"/>
       <c r="J102" s="12"/>
-      <c r="K102" s="21"/>
-    </row>
-    <row r="103" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K102" s="39" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="103" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A103" s="24">
-        <v>45170</v>
+        <v>45139</v>
       </c>
       <c r="B103" s="12"/>
       <c r="C103" s="14"/>
@@ -3878,9 +3892,9 @@
       <c r="J103" s="12"/>
       <c r="K103" s="21"/>
     </row>
-    <row r="104" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A104" s="24">
-        <v>45200</v>
+        <v>45170</v>
       </c>
       <c r="B104" s="12"/>
       <c r="C104" s="14"/>
@@ -3896,9 +3910,9 @@
       <c r="J104" s="12"/>
       <c r="K104" s="21"/>
     </row>
-    <row r="105" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A105" s="24">
-        <v>45231</v>
+        <v>45200</v>
       </c>
       <c r="B105" s="12"/>
       <c r="C105" s="14"/>
@@ -3914,9 +3928,9 @@
       <c r="J105" s="12"/>
       <c r="K105" s="21"/>
     </row>
-    <row r="106" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A106" s="24">
-        <v>45261</v>
+        <v>45231</v>
       </c>
       <c r="B106" s="12"/>
       <c r="C106" s="14"/>
@@ -3932,9 +3946,9 @@
       <c r="J106" s="12"/>
       <c r="K106" s="21"/>
     </row>
-    <row r="107" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A107" s="24">
-        <v>45292</v>
+        <v>45261</v>
       </c>
       <c r="B107" s="12"/>
       <c r="C107" s="14"/>
@@ -3950,9 +3964,9 @@
       <c r="J107" s="12"/>
       <c r="K107" s="21"/>
     </row>
-    <row r="108" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A108" s="24">
-        <v>45323</v>
+        <v>45292</v>
       </c>
       <c r="B108" s="12"/>
       <c r="C108" s="14"/>
@@ -3968,9 +3982,9 @@
       <c r="J108" s="12"/>
       <c r="K108" s="21"/>
     </row>
-    <row r="109" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A109" s="24">
-        <v>45352</v>
+        <v>45323</v>
       </c>
       <c r="B109" s="12"/>
       <c r="C109" s="14"/>
@@ -3986,9 +4000,9 @@
       <c r="J109" s="12"/>
       <c r="K109" s="21"/>
     </row>
-    <row r="110" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A110" s="24">
-        <v>45383</v>
+        <v>45352</v>
       </c>
       <c r="B110" s="12"/>
       <c r="C110" s="14"/>
@@ -4004,9 +4018,9 @@
       <c r="J110" s="12"/>
       <c r="K110" s="21"/>
     </row>
-    <row r="111" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A111" s="24">
-        <v>45413</v>
+        <v>45383</v>
       </c>
       <c r="B111" s="12"/>
       <c r="C111" s="14"/>
@@ -4022,9 +4036,9 @@
       <c r="J111" s="12"/>
       <c r="K111" s="21"/>
     </row>
-    <row r="112" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A112" s="24">
-        <v>45444</v>
+        <v>45413</v>
       </c>
       <c r="B112" s="12"/>
       <c r="C112" s="14"/>
@@ -4040,9 +4054,9 @@
       <c r="J112" s="12"/>
       <c r="K112" s="21"/>
     </row>
-    <row r="113" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A113" s="24">
-        <v>45474</v>
+        <v>45444</v>
       </c>
       <c r="B113" s="12"/>
       <c r="C113" s="14"/>
@@ -4058,27 +4072,27 @@
       <c r="J113" s="12"/>
       <c r="K113" s="21"/>
     </row>
-    <row r="114" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A114" s="24">
+        <v>45474</v>
+      </c>
+      <c r="B114" s="12"/>
+      <c r="C114" s="14"/>
+      <c r="D114" s="12"/>
+      <c r="E114" s="9"/>
+      <c r="F114" s="12"/>
+      <c r="G114" s="14" t="str">
+        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H114" s="12"/>
+      <c r="I114" s="9"/>
+      <c r="J114" s="12"/>
+      <c r="K114" s="21"/>
+    </row>
+    <row r="115" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A115" s="24">
         <v>45505</v>
-      </c>
-      <c r="B114" s="13"/>
-      <c r="C114" s="14"/>
-      <c r="D114" s="13"/>
-      <c r="E114" s="10"/>
-      <c r="F114" s="13"/>
-      <c r="G114" s="14" t="str">
-        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H114" s="13"/>
-      <c r="I114" s="10"/>
-      <c r="J114" s="13"/>
-      <c r="K114" s="16"/>
-    </row>
-    <row r="115" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A115" s="24">
-        <v>45536</v>
       </c>
       <c r="B115" s="13"/>
       <c r="C115" s="14"/>
@@ -4089,14 +4103,14 @@
         <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H115" s="12"/>
-      <c r="I115" s="9"/>
-      <c r="J115" s="12"/>
-      <c r="K115" s="21"/>
-    </row>
-    <row r="116" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="H115" s="13"/>
+      <c r="I115" s="10"/>
+      <c r="J115" s="13"/>
+      <c r="K115" s="16"/>
+    </row>
+    <row r="116" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A116" s="24">
-        <v>45566</v>
+        <v>45536</v>
       </c>
       <c r="B116" s="13"/>
       <c r="C116" s="14"/>
@@ -4112,9 +4126,9 @@
       <c r="J116" s="12"/>
       <c r="K116" s="21"/>
     </row>
-    <row r="117" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A117" s="24">
-        <v>45597</v>
+        <v>45566</v>
       </c>
       <c r="B117" s="13"/>
       <c r="C117" s="14"/>
@@ -4130,9 +4144,9 @@
       <c r="J117" s="12"/>
       <c r="K117" s="21"/>
     </row>
-    <row r="118" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A118" s="24">
-        <v>45627</v>
+        <v>45597</v>
       </c>
       <c r="B118" s="13"/>
       <c r="C118" s="14"/>
@@ -4148,9 +4162,9 @@
       <c r="J118" s="12"/>
       <c r="K118" s="21"/>
     </row>
-    <row r="119" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A119" s="24">
-        <v>45658</v>
+        <v>45627</v>
       </c>
       <c r="B119" s="13"/>
       <c r="C119" s="14"/>
@@ -4166,8 +4180,10 @@
       <c r="J119" s="12"/>
       <c r="K119" s="21"/>
     </row>
-    <row r="120" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A120" s="24"/>
+    <row r="120" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A120" s="24">
+        <v>45658</v>
+      </c>
       <c r="B120" s="13"/>
       <c r="C120" s="14"/>
       <c r="D120" s="13"/>
@@ -4182,7 +4198,7 @@
       <c r="J120" s="12"/>
       <c r="K120" s="21"/>
     </row>
-    <row r="121" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A121" s="24"/>
       <c r="B121" s="13"/>
       <c r="C121" s="14"/>
@@ -4198,7 +4214,7 @@
       <c r="J121" s="12"/>
       <c r="K121" s="21"/>
     </row>
-    <row r="122" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A122" s="24"/>
       <c r="B122" s="13"/>
       <c r="C122" s="14"/>
@@ -4214,7 +4230,7 @@
       <c r="J122" s="12"/>
       <c r="K122" s="21"/>
     </row>
-    <row r="123" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A123" s="24"/>
       <c r="B123" s="13"/>
       <c r="C123" s="14"/>
@@ -4230,7 +4246,7 @@
       <c r="J123" s="12"/>
       <c r="K123" s="21"/>
     </row>
-    <row r="124" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A124" s="24"/>
       <c r="B124" s="13"/>
       <c r="C124" s="14"/>
@@ -4246,7 +4262,7 @@
       <c r="J124" s="12"/>
       <c r="K124" s="21"/>
     </row>
-    <row r="125" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A125" s="24"/>
       <c r="B125" s="13"/>
       <c r="C125" s="14"/>
@@ -4257,28 +4273,28 @@
         <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H125" s="13"/>
-      <c r="I125" s="10"/>
-      <c r="J125" s="13"/>
-      <c r="K125" s="16"/>
-    </row>
-    <row r="126" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="H125" s="12"/>
+      <c r="I125" s="9"/>
+      <c r="J125" s="12"/>
+      <c r="K125" s="21"/>
+    </row>
+    <row r="126" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A126" s="24"/>
-      <c r="B126" s="12"/>
+      <c r="B126" s="13"/>
       <c r="C126" s="14"/>
-      <c r="D126" s="12"/>
-      <c r="E126" s="9"/>
-      <c r="F126" s="12"/>
+      <c r="D126" s="13"/>
+      <c r="E126" s="10"/>
+      <c r="F126" s="13"/>
       <c r="G126" s="14" t="str">
         <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H126" s="12"/>
-      <c r="I126" s="9"/>
-      <c r="J126" s="12"/>
-      <c r="K126" s="21"/>
-    </row>
-    <row r="127" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="H126" s="13"/>
+      <c r="I126" s="10"/>
+      <c r="J126" s="13"/>
+      <c r="K126" s="16"/>
+    </row>
+    <row r="127" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A127" s="24"/>
       <c r="B127" s="12"/>
       <c r="C127" s="14"/>
@@ -4294,7 +4310,7 @@
       <c r="J127" s="12"/>
       <c r="K127" s="21"/>
     </row>
-    <row r="128" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A128" s="24"/>
       <c r="B128" s="12"/>
       <c r="C128" s="14"/>
@@ -4310,7 +4326,7 @@
       <c r="J128" s="12"/>
       <c r="K128" s="21"/>
     </row>
-    <row r="129" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A129" s="24"/>
       <c r="B129" s="12"/>
       <c r="C129" s="14"/>
@@ -4326,21 +4342,37 @@
       <c r="J129" s="12"/>
       <c r="K129" s="21"/>
     </row>
-    <row r="130" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A130" s="24"/>
-      <c r="B130" s="13"/>
+      <c r="B130" s="12"/>
       <c r="C130" s="14"/>
-      <c r="D130" s="13"/>
-      <c r="E130" s="10"/>
-      <c r="F130" s="13"/>
+      <c r="D130" s="12"/>
+      <c r="E130" s="9"/>
+      <c r="F130" s="12"/>
       <c r="G130" s="14" t="str">
         <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H130" s="13"/>
-      <c r="I130" s="10"/>
-      <c r="J130" s="13"/>
-      <c r="K130" s="16"/>
+      <c r="H130" s="12"/>
+      <c r="I130" s="9"/>
+      <c r="J130" s="12"/>
+      <c r="K130" s="21"/>
+    </row>
+    <row r="131" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A131" s="24"/>
+      <c r="B131" s="13"/>
+      <c r="C131" s="14"/>
+      <c r="D131" s="13"/>
+      <c r="E131" s="10"/>
+      <c r="F131" s="13"/>
+      <c r="G131" s="14" t="str">
+        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H131" s="13"/>
+      <c r="I131" s="10"/>
+      <c r="J131" s="13"/>
+      <c r="K131" s="16"/>
     </row>
   </sheetData>
   <mergeCells count="11">
@@ -4357,10 +4389,10 @@
     <mergeCell ref="J3:K3"/>
   </mergeCells>
   <dataValidations disablePrompts="1" count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>"PERMANENT, CO-TERMINUS, CASUAL, JOBCON"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2" xr:uid="{00000000-0002-0000-0000-000001000000}">
       <formula1>"1 - Married (and not separated), 2 - Widowed (including living common law), 3 - Separated (including living common law), 4 - Divorced (including living common law), 5 - Single (including living common law)"</formula1>
     </dataValidation>
   </dataValidations>
@@ -4383,34 +4415,34 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A2:K87"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="3690" topLeftCell="A35" activePane="bottomLeft"/>
+      <pane ySplit="3696" topLeftCell="A35" activePane="bottomLeft"/>
       <selection activeCell="B4" sqref="B4:C4"/>
       <selection pane="bottomLeft" activeCell="K53" sqref="K53"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.28515625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="16.5703125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="12.140625" style="31" customWidth="1"/>
-    <col min="4" max="4" width="12.7109375" style="1" customWidth="1"/>
-    <col min="5" max="5" width="11.7109375" style="1" customWidth="1"/>
-    <col min="6" max="6" width="12.7109375" style="1" customWidth="1"/>
-    <col min="7" max="7" width="12.140625" style="31" customWidth="1"/>
-    <col min="8" max="8" width="12.7109375" style="1" customWidth="1"/>
-    <col min="9" max="9" width="11.7109375" style="1" customWidth="1"/>
-    <col min="10" max="10" width="12.7109375" style="1" customWidth="1"/>
-    <col min="11" max="11" width="24.85546875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="10.33203125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="16.5546875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="12.109375" style="31" customWidth="1"/>
+    <col min="4" max="4" width="12.6640625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="11.6640625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="12.6640625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="12.109375" style="31" customWidth="1"/>
+    <col min="8" max="8" width="12.6640625" style="1" customWidth="1"/>
+    <col min="9" max="9" width="11.6640625" style="1" customWidth="1"/>
+    <col min="10" max="10" width="12.6640625" style="1" customWidth="1"/>
+    <col min="11" max="11" width="24.88671875" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:11" ht="20.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="30" t="s">
         <v>9</v>
       </c>
@@ -4431,7 +4463,7 @@
       <c r="J2" s="51"/>
       <c r="K2" s="52"/>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3" s="19" t="s">
         <v>15</v>
       </c>
@@ -4449,7 +4481,7 @@
       <c r="J3" s="54"/>
       <c r="K3" s="55"/>
     </row>
-    <row r="4" spans="1:11" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="19" t="s">
         <v>16</v>
       </c>
@@ -4469,7 +4501,7 @@
       <c r="J4" s="51"/>
       <c r="K4" s="52"/>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5" s="17"/>
       <c r="H5" s="28" t="s">
         <v>18</v>
@@ -4477,7 +4509,7 @@
       <c r="I5" s="28"/>
       <c r="K5" s="4"/>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A6" s="18"/>
       <c r="B6" s="8"/>
       <c r="C6" s="32"/>
@@ -4490,7 +4522,7 @@
       <c r="J6" s="8"/>
       <c r="K6" s="20"/>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7" s="15"/>
       <c r="B7" s="15"/>
       <c r="C7" s="56" t="s">
@@ -4507,7 +4539,7 @@
       <c r="J7" s="56"/>
       <c r="K7" s="15"/>
     </row>
-    <row r="8" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A8" s="7" t="s">
         <v>0</v>
       </c>
@@ -4542,7 +4574,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A9" s="24"/>
       <c r="B9" s="25" t="s">
         <v>23</v>
@@ -4566,7 +4598,7 @@
       <c r="J9" s="12"/>
       <c r="K9" s="21"/>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A10" s="38" t="s">
         <v>48</v>
       </c>
@@ -4588,7 +4620,7 @@
       <c r="J10" s="12"/>
       <c r="K10" s="21"/>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A11" s="24">
         <v>43252</v>
       </c>
@@ -4610,7 +4642,7 @@
         <v>43304</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A12" s="24"/>
       <c r="B12" s="21" t="s">
         <v>50</v>
@@ -4630,7 +4662,7 @@
         <v>43291</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A13" s="38" t="s">
         <v>58</v>
       </c>
@@ -4648,7 +4680,7 @@
       <c r="J13" s="12"/>
       <c r="K13" s="21"/>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A14" s="24">
         <v>43647</v>
       </c>
@@ -4670,7 +4702,7 @@
         <v>43656</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A15" s="38" t="s">
         <v>69</v>
       </c>
@@ -4688,7 +4720,7 @@
       <c r="J15" s="12"/>
       <c r="K15" s="21"/>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A16" s="24">
         <v>43831</v>
       </c>
@@ -4710,7 +4742,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A17" s="24">
         <v>43891</v>
       </c>
@@ -4732,7 +4764,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A18" s="24">
         <v>44013</v>
       </c>
@@ -4754,7 +4786,7 @@
         <v>44027</v>
       </c>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A19" s="24"/>
       <c r="B19" s="21" t="s">
         <v>50</v>
@@ -4774,7 +4806,7 @@
         <v>44032</v>
       </c>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A20" s="24">
         <v>44075</v>
       </c>
@@ -4798,7 +4830,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A21" s="24"/>
       <c r="B21" s="21" t="s">
         <v>47</v>
@@ -4820,7 +4852,7 @@
         <v>44088</v>
       </c>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A22" s="24"/>
       <c r="B22" s="21" t="s">
         <v>47</v>
@@ -4842,7 +4874,7 @@
         <v>44095</v>
       </c>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A23" s="24">
         <v>44166</v>
       </c>
@@ -4866,7 +4898,7 @@
         <v>44166</v>
       </c>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A24" s="38" t="s">
         <v>83</v>
       </c>
@@ -4884,7 +4916,7 @@
       <c r="J24" s="12"/>
       <c r="K24" s="21"/>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A25" s="24">
         <v>44197</v>
       </c>
@@ -4908,7 +4940,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A26" s="24"/>
       <c r="B26" s="21" t="s">
         <v>44</v>
@@ -4930,7 +4962,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A27" s="24"/>
       <c r="B27" s="21" t="s">
         <v>47</v>
@@ -4952,7 +4984,7 @@
         <v>44217</v>
       </c>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A28" s="24">
         <v>44228</v>
       </c>
@@ -4974,7 +5006,7 @@
       <c r="J28" s="12"/>
       <c r="K28" s="21"/>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A29" s="24"/>
       <c r="B29" s="21" t="s">
         <v>47</v>
@@ -4996,7 +5028,7 @@
         <v>44235</v>
       </c>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A30" s="24"/>
       <c r="B30" s="21" t="s">
         <v>56</v>
@@ -5016,7 +5048,7 @@
       <c r="J30" s="12"/>
       <c r="K30" s="21"/>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A31" s="24">
         <v>44256</v>
       </c>
@@ -5038,7 +5070,7 @@
       <c r="J31" s="12"/>
       <c r="K31" s="21"/>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A32" s="24"/>
       <c r="B32" s="21" t="s">
         <v>47</v>
@@ -5060,7 +5092,7 @@
         <v>44258</v>
       </c>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A33" s="24"/>
       <c r="B33" s="21" t="s">
         <v>47</v>
@@ -5082,7 +5114,7 @@
         <v>44265</v>
       </c>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A34" s="38" t="s">
         <v>43</v>
       </c>
@@ -5100,7 +5132,7 @@
       <c r="J34" s="12"/>
       <c r="K34" s="21"/>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A35" s="24">
         <v>44713</v>
       </c>
@@ -5122,7 +5154,7 @@
       <c r="J35" s="12"/>
       <c r="K35" s="21"/>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A36" s="24"/>
       <c r="B36" s="21" t="s">
         <v>44</v>
@@ -5144,7 +5176,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A37" s="24"/>
       <c r="B37" s="21" t="s">
         <v>47</v>
@@ -5166,7 +5198,7 @@
         <v>44732</v>
       </c>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A38" s="24"/>
       <c r="B38" s="21" t="s">
         <v>50</v>
@@ -5186,7 +5218,7 @@
         <v>44761</v>
       </c>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A39" s="24">
         <v>44743</v>
       </c>
@@ -5210,7 +5242,7 @@
         <v>44769</v>
       </c>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A40" s="24"/>
       <c r="B40" s="21" t="s">
         <v>50</v>
@@ -5230,7 +5262,7 @@
         <v>44764</v>
       </c>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A41" s="24"/>
       <c r="B41" s="21" t="s">
         <v>50</v>
@@ -5250,7 +5282,7 @@
         <v>44753</v>
       </c>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A42" s="24">
         <v>44774</v>
       </c>
@@ -5274,7 +5306,7 @@
         <v>44781</v>
       </c>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A43" s="24"/>
       <c r="B43" s="21" t="s">
         <v>47</v>
@@ -5296,7 +5328,7 @@
         <v>44784</v>
       </c>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A44" s="24">
         <v>44805</v>
       </c>
@@ -5320,7 +5352,7 @@
         <v>44826</v>
       </c>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A45" s="24"/>
       <c r="B45" s="21" t="s">
         <v>47</v>
@@ -5342,7 +5374,7 @@
         <v>44819</v>
       </c>
     </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A46" s="24"/>
       <c r="B46" s="16" t="s">
         <v>47</v>
@@ -5364,7 +5396,7 @@
         <v>44812</v>
       </c>
     </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A47" s="24">
         <v>44835</v>
       </c>
@@ -5388,7 +5420,7 @@
         <v>44858</v>
       </c>
     </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A48" s="24">
         <v>44866</v>
       </c>
@@ -5412,7 +5444,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A49" s="24">
         <v>44866</v>
       </c>
@@ -5436,7 +5468,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A50" s="24">
         <v>44896</v>
       </c>
@@ -5460,7 +5492,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A51" s="38" t="s">
         <v>91</v>
       </c>
@@ -5478,7 +5510,7 @@
       <c r="J51" s="12"/>
       <c r="K51" s="21"/>
     </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A52" s="24">
         <v>45078</v>
       </c>
@@ -5500,7 +5532,7 @@
         <v>45117</v>
       </c>
     </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A53" s="24"/>
       <c r="B53" s="12"/>
       <c r="C53" s="14"/>
@@ -5516,7 +5548,7 @@
       <c r="J53" s="12"/>
       <c r="K53" s="21"/>
     </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A54" s="24"/>
       <c r="B54" s="12"/>
       <c r="C54" s="14"/>
@@ -5532,7 +5564,7 @@
       <c r="J54" s="12"/>
       <c r="K54" s="21"/>
     </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A55" s="24"/>
       <c r="B55" s="12"/>
       <c r="C55" s="14"/>
@@ -5548,7 +5580,7 @@
       <c r="J55" s="12"/>
       <c r="K55" s="21"/>
     </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A56" s="24"/>
       <c r="B56" s="12"/>
       <c r="C56" s="14"/>
@@ -5564,7 +5596,7 @@
       <c r="J56" s="12"/>
       <c r="K56" s="21"/>
     </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A57" s="24"/>
       <c r="B57" s="12"/>
       <c r="C57" s="14"/>
@@ -5580,7 +5612,7 @@
       <c r="J57" s="12"/>
       <c r="K57" s="21"/>
     </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A58" s="24"/>
       <c r="B58" s="12"/>
       <c r="C58" s="14"/>
@@ -5596,7 +5628,7 @@
       <c r="J58" s="12"/>
       <c r="K58" s="21"/>
     </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A59" s="24"/>
       <c r="B59" s="12"/>
       <c r="C59" s="14"/>
@@ -5612,7 +5644,7 @@
       <c r="J59" s="12"/>
       <c r="K59" s="21"/>
     </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A60" s="24"/>
       <c r="B60" s="12"/>
       <c r="C60" s="14"/>
@@ -5628,7 +5660,7 @@
       <c r="J60" s="12"/>
       <c r="K60" s="21"/>
     </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A61" s="24"/>
       <c r="B61" s="12"/>
       <c r="C61" s="14"/>
@@ -5644,7 +5676,7 @@
       <c r="J61" s="12"/>
       <c r="K61" s="21"/>
     </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A62" s="24"/>
       <c r="B62" s="12"/>
       <c r="C62" s="14"/>
@@ -5660,7 +5692,7 @@
       <c r="J62" s="12"/>
       <c r="K62" s="21"/>
     </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A63" s="24"/>
       <c r="B63" s="12"/>
       <c r="C63" s="14"/>
@@ -5676,7 +5708,7 @@
       <c r="J63" s="12"/>
       <c r="K63" s="21"/>
     </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A64" s="24"/>
       <c r="B64" s="12"/>
       <c r="C64" s="14"/>
@@ -5692,7 +5724,7 @@
       <c r="J64" s="12"/>
       <c r="K64" s="21"/>
     </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A65" s="24"/>
       <c r="B65" s="12"/>
       <c r="C65" s="14"/>
@@ -5708,7 +5740,7 @@
       <c r="J65" s="12"/>
       <c r="K65" s="21"/>
     </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A66" s="24"/>
       <c r="B66" s="12"/>
       <c r="C66" s="14"/>
@@ -5724,7 +5756,7 @@
       <c r="J66" s="12"/>
       <c r="K66" s="21"/>
     </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A67" s="24"/>
       <c r="B67" s="12"/>
       <c r="C67" s="14"/>
@@ -5740,7 +5772,7 @@
       <c r="J67" s="12"/>
       <c r="K67" s="21"/>
     </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A68" s="24"/>
       <c r="B68" s="12"/>
       <c r="C68" s="14"/>
@@ -5756,7 +5788,7 @@
       <c r="J68" s="12"/>
       <c r="K68" s="21"/>
     </row>
-    <row r="69" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A69" s="24"/>
       <c r="B69" s="12"/>
       <c r="C69" s="14"/>
@@ -5772,7 +5804,7 @@
       <c r="J69" s="12"/>
       <c r="K69" s="21"/>
     </row>
-    <row r="70" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A70" s="24"/>
       <c r="B70" s="12"/>
       <c r="C70" s="14"/>
@@ -5788,7 +5820,7 @@
       <c r="J70" s="12"/>
       <c r="K70" s="21"/>
     </row>
-    <row r="71" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A71" s="24"/>
       <c r="B71" s="13"/>
       <c r="C71" s="14"/>
@@ -5804,7 +5836,7 @@
       <c r="J71" s="13"/>
       <c r="K71" s="16"/>
     </row>
-    <row r="72" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A72" s="24"/>
       <c r="B72" s="13"/>
       <c r="C72" s="14"/>
@@ -5820,7 +5852,7 @@
       <c r="J72" s="12"/>
       <c r="K72" s="21"/>
     </row>
-    <row r="73" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A73" s="24"/>
       <c r="B73" s="13"/>
       <c r="C73" s="14"/>
@@ -5836,7 +5868,7 @@
       <c r="J73" s="12"/>
       <c r="K73" s="21"/>
     </row>
-    <row r="74" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A74" s="24"/>
       <c r="B74" s="13"/>
       <c r="C74" s="14"/>
@@ -5852,7 +5884,7 @@
       <c r="J74" s="12"/>
       <c r="K74" s="21"/>
     </row>
-    <row r="75" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A75" s="24"/>
       <c r="B75" s="13"/>
       <c r="C75" s="14"/>
@@ -5868,7 +5900,7 @@
       <c r="J75" s="12"/>
       <c r="K75" s="21"/>
     </row>
-    <row r="76" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A76" s="24"/>
       <c r="B76" s="13"/>
       <c r="C76" s="14"/>
@@ -5884,7 +5916,7 @@
       <c r="J76" s="12"/>
       <c r="K76" s="21"/>
     </row>
-    <row r="77" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A77" s="24"/>
       <c r="B77" s="13"/>
       <c r="C77" s="14"/>
@@ -5900,7 +5932,7 @@
       <c r="J77" s="12"/>
       <c r="K77" s="21"/>
     </row>
-    <row r="78" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A78" s="24"/>
       <c r="B78" s="13"/>
       <c r="C78" s="14"/>
@@ -5916,7 +5948,7 @@
       <c r="J78" s="12"/>
       <c r="K78" s="21"/>
     </row>
-    <row r="79" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A79" s="24"/>
       <c r="B79" s="13"/>
       <c r="C79" s="14"/>
@@ -5932,7 +5964,7 @@
       <c r="J79" s="12"/>
       <c r="K79" s="21"/>
     </row>
-    <row r="80" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A80" s="24"/>
       <c r="B80" s="13"/>
       <c r="C80" s="14"/>
@@ -5948,7 +5980,7 @@
       <c r="J80" s="12"/>
       <c r="K80" s="21"/>
     </row>
-    <row r="81" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A81" s="24"/>
       <c r="B81" s="13"/>
       <c r="C81" s="14"/>
@@ -5964,7 +5996,7 @@
       <c r="J81" s="12"/>
       <c r="K81" s="21"/>
     </row>
-    <row r="82" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A82" s="24"/>
       <c r="B82" s="13"/>
       <c r="C82" s="14"/>
@@ -5980,7 +6012,7 @@
       <c r="J82" s="13"/>
       <c r="K82" s="16"/>
     </row>
-    <row r="83" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A83" s="24"/>
       <c r="B83" s="12"/>
       <c r="C83" s="14"/>
@@ -5996,7 +6028,7 @@
       <c r="J83" s="12"/>
       <c r="K83" s="21"/>
     </row>
-    <row r="84" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A84" s="24"/>
       <c r="B84" s="12"/>
       <c r="C84" s="14"/>
@@ -6012,7 +6044,7 @@
       <c r="J84" s="12"/>
       <c r="K84" s="21"/>
     </row>
-    <row r="85" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A85" s="24"/>
       <c r="B85" s="12"/>
       <c r="C85" s="14"/>
@@ -6028,7 +6060,7 @@
       <c r="J85" s="12"/>
       <c r="K85" s="21"/>
     </row>
-    <row r="86" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A86" s="24"/>
       <c r="B86" s="12"/>
       <c r="C86" s="14"/>
@@ -6044,7 +6076,7 @@
       <c r="J86" s="12"/>
       <c r="K86" s="21"/>
     </row>
-    <row r="87" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A87" s="24"/>
       <c r="B87" s="13"/>
       <c r="C87" s="14"/>
@@ -6076,10 +6108,10 @@
   </mergeCells>
   <phoneticPr fontId="5" type="noConversion"/>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2" xr:uid="{00000000-0002-0000-0100-000000000000}">
       <formula1>"1 - Married (and not separated), 2 - Widowed (including living common law), 3 - Separated (including living common law), 4 - Divorced (including living common law), 5 - Single (including living common law)"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4" xr:uid="{00000000-0002-0000-0100-000001000000}">
       <formula1>"PERMANENT, CO-TERMINUS, CASUAL, JOBCON"</formula1>
     </dataValidation>
   </dataValidations>
@@ -6102,28 +6134,28 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:L67"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="G17" sqref="G17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="21.28515625" customWidth="1"/>
-    <col min="2" max="2" width="20.7109375" customWidth="1"/>
-    <col min="4" max="4" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="26.140625" customWidth="1"/>
-    <col min="9" max="9" width="16.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" style="41" hidden="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" customWidth="1"/>
+    <col min="1" max="1" width="21.33203125" customWidth="1"/>
+    <col min="2" max="2" width="20.6640625" customWidth="1"/>
+    <col min="4" max="4" width="15.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="26.109375" customWidth="1"/>
+    <col min="9" max="9" width="16.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.88671875" customWidth="1"/>
+    <col min="11" max="11" width="14.88671875" style="41" hidden="1" customWidth="1"/>
+    <col min="12" max="12" width="14.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="D1" s="57" t="s">
         <v>33</v>
       </c>
@@ -6136,7 +6168,7 @@
       <c r="K1" s="58"/>
       <c r="L1" s="58"/>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A2" s="33" t="s">
         <v>24</v>
       </c>
@@ -6165,7 +6197,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A3" s="12">
         <v>4.5309999999999997</v>
       </c>
@@ -6189,17 +6221,17 @@
         <v>---</v>
       </c>
     </row>
-    <row r="4" spans="1:12" ht="14.45" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="G4" s="34"/>
       <c r="J4" s="1" t="str">
         <f>IF(TEXT(J3,"D")=1,1,TEXT(J3,"D"))</f>
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
       <c r="J5" s="1"/>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C6" s="42" t="s">
         <v>28</v>
       </c>
@@ -6220,7 +6252,7 @@
       <c r="K6" s="59"/>
       <c r="L6" s="59"/>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C7" s="41">
         <v>1</v>
       </c>
@@ -6247,7 +6279,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C8" s="41">
         <v>2</v>
       </c>
@@ -6273,7 +6305,7 @@
         <v>4.2000000000000003E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C9" s="41">
         <v>3</v>
       </c>
@@ -6299,7 +6331,7 @@
         <v>8.3000000000000004E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C10" s="41">
         <v>4</v>
       </c>
@@ -6325,7 +6357,7 @@
         <v>0.125</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C11" s="41">
         <v>5</v>
       </c>
@@ -6351,7 +6383,7 @@
         <v>0.16700000000000001</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C12" s="41">
         <v>6</v>
       </c>
@@ -6377,7 +6409,7 @@
         <v>0.20800000000000002</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C13" s="41">
         <v>7</v>
       </c>
@@ -6403,7 +6435,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C14" s="41">
         <v>8</v>
       </c>
@@ -6429,7 +6461,7 @@
         <v>0.29199999999999998</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C15" s="41">
         <v>9</v>
       </c>
@@ -6449,7 +6481,7 @@
         <v>0.33299999999999996</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C16" s="41">
         <v>10</v>
       </c>
@@ -6469,7 +6501,7 @@
         <v>0.37499999999999994</v>
       </c>
     </row>
-    <row r="17" spans="3:12" x14ac:dyDescent="0.25">
+    <row r="17" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C17" s="41">
         <v>11</v>
       </c>
@@ -6489,7 +6521,7 @@
         <v>0.41699999999999993</v>
       </c>
     </row>
-    <row r="18" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C18" s="41">
         <v>12</v>
       </c>
@@ -6510,7 +6542,7 @@
         <v>0.45799999999999991</v>
       </c>
     </row>
-    <row r="19" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C19" s="41">
         <v>13</v>
       </c>
@@ -6531,7 +6563,7 @@
         <v>0.49999999999999989</v>
       </c>
     </row>
-    <row r="20" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C20" s="41">
         <v>14</v>
       </c>
@@ -6552,7 +6584,7 @@
         <v>0.54199999999999993</v>
       </c>
     </row>
-    <row r="21" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C21" s="41">
         <v>15</v>
       </c>
@@ -6573,7 +6605,7 @@
         <v>0.58299999999999996</v>
       </c>
     </row>
-    <row r="22" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C22" s="41">
         <v>16</v>
       </c>
@@ -6594,7 +6626,7 @@
         <v>0.625</v>
       </c>
     </row>
-    <row r="23" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C23" s="41">
         <v>17</v>
       </c>
@@ -6615,7 +6647,7 @@
         <v>0.66700000000000004</v>
       </c>
     </row>
-    <row r="24" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C24" s="41">
         <v>18</v>
       </c>
@@ -6636,7 +6668,7 @@
         <v>0.70800000000000007</v>
       </c>
     </row>
-    <row r="25" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C25" s="41">
         <v>19</v>
       </c>
@@ -6657,7 +6689,7 @@
         <v>0.75000000000000011</v>
       </c>
     </row>
-    <row r="26" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C26" s="41">
         <v>20</v>
       </c>
@@ -6678,7 +6710,7 @@
         <v>0.79200000000000015</v>
       </c>
     </row>
-    <row r="27" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C27" s="41">
         <v>21</v>
       </c>
@@ -6699,7 +6731,7 @@
         <v>0.83300000000000018</v>
       </c>
     </row>
-    <row r="28" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C28" s="41">
         <v>22</v>
       </c>
@@ -6720,7 +6752,7 @@
         <v>0.87500000000000022</v>
       </c>
     </row>
-    <row r="29" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C29" s="41">
         <v>23</v>
       </c>
@@ -6741,7 +6773,7 @@
         <v>0.91700000000000026</v>
       </c>
     </row>
-    <row r="30" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C30" s="41">
         <v>24</v>
       </c>
@@ -6762,7 +6794,7 @@
         <v>0.9580000000000003</v>
       </c>
     </row>
-    <row r="31" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C31" s="41">
         <v>25</v>
       </c>
@@ -6783,7 +6815,7 @@
         <v>1.0000000000000002</v>
       </c>
     </row>
-    <row r="32" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C32" s="41">
         <v>26</v>
       </c>
@@ -6804,7 +6836,7 @@
         <v>1.0420000000000003</v>
       </c>
     </row>
-    <row r="33" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C33" s="41">
         <v>27</v>
       </c>
@@ -6825,7 +6857,7 @@
         <v>1.0830000000000002</v>
       </c>
     </row>
-    <row r="34" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C34" s="41">
         <v>28</v>
       </c>
@@ -6846,7 +6878,7 @@
         <v>1.1250000000000002</v>
       </c>
     </row>
-    <row r="35" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C35" s="41">
         <v>29</v>
       </c>
@@ -6867,7 +6899,7 @@
         <v>1.1670000000000003</v>
       </c>
     </row>
-    <row r="36" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C36" s="41">
         <v>30</v>
       </c>
@@ -6888,7 +6920,7 @@
         <v>1.2080000000000002</v>
       </c>
     </row>
-    <row r="37" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C37" s="41">
         <v>31</v>
       </c>
@@ -6909,7 +6941,7 @@
         <v>1.2500000000000002</v>
       </c>
     </row>
-    <row r="38" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C38" s="41">
         <v>32</v>
       </c>
@@ -6918,7 +6950,7 @@
       </c>
       <c r="G38"/>
     </row>
-    <row r="39" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C39" s="41">
         <v>33</v>
       </c>
@@ -6927,7 +6959,7 @@
       </c>
       <c r="G39"/>
     </row>
-    <row r="40" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C40" s="41">
         <v>34</v>
       </c>
@@ -6936,7 +6968,7 @@
       </c>
       <c r="G40"/>
     </row>
-    <row r="41" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C41" s="41">
         <v>35</v>
       </c>
@@ -6945,7 +6977,7 @@
       </c>
       <c r="G41"/>
     </row>
-    <row r="42" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C42" s="41">
         <v>36</v>
       </c>
@@ -6954,7 +6986,7 @@
       </c>
       <c r="G42"/>
     </row>
-    <row r="43" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C43" s="41">
         <v>37</v>
       </c>
@@ -6963,7 +6995,7 @@
       </c>
       <c r="G43"/>
     </row>
-    <row r="44" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C44" s="41">
         <v>38</v>
       </c>
@@ -6972,7 +7004,7 @@
       </c>
       <c r="G44"/>
     </row>
-    <row r="45" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C45" s="41">
         <v>39</v>
       </c>
@@ -6981,7 +7013,7 @@
       </c>
       <c r="G45"/>
     </row>
-    <row r="46" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C46" s="41">
         <v>40</v>
       </c>
@@ -6990,7 +7022,7 @@
       </c>
       <c r="G46"/>
     </row>
-    <row r="47" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C47" s="41">
         <v>41</v>
       </c>
@@ -6999,7 +7031,7 @@
       </c>
       <c r="G47"/>
     </row>
-    <row r="48" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C48" s="41">
         <v>42</v>
       </c>
@@ -7008,7 +7040,7 @@
       </c>
       <c r="G48"/>
     </row>
-    <row r="49" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C49" s="41">
         <v>43</v>
       </c>
@@ -7017,7 +7049,7 @@
       </c>
       <c r="G49"/>
     </row>
-    <row r="50" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C50" s="41">
         <v>44</v>
       </c>
@@ -7026,7 +7058,7 @@
       </c>
       <c r="G50"/>
     </row>
-    <row r="51" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C51" s="41">
         <v>45</v>
       </c>
@@ -7035,7 +7067,7 @@
       </c>
       <c r="G51"/>
     </row>
-    <row r="52" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C52" s="41">
         <v>46</v>
       </c>
@@ -7044,7 +7076,7 @@
       </c>
       <c r="G52"/>
     </row>
-    <row r="53" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C53" s="41">
         <v>47</v>
       </c>
@@ -7053,7 +7085,7 @@
       </c>
       <c r="G53"/>
     </row>
-    <row r="54" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C54" s="41">
         <v>48</v>
       </c>
@@ -7062,7 +7094,7 @@
       </c>
       <c r="G54"/>
     </row>
-    <row r="55" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C55" s="41">
         <v>49</v>
       </c>
@@ -7071,7 +7103,7 @@
       </c>
       <c r="G55"/>
     </row>
-    <row r="56" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C56" s="41">
         <v>50</v>
       </c>
@@ -7080,7 +7112,7 @@
       </c>
       <c r="G56"/>
     </row>
-    <row r="57" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C57" s="41">
         <v>51</v>
       </c>
@@ -7089,7 +7121,7 @@
       </c>
       <c r="G57"/>
     </row>
-    <row r="58" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C58" s="41">
         <v>52</v>
       </c>
@@ -7098,7 +7130,7 @@
       </c>
       <c r="G58"/>
     </row>
-    <row r="59" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C59" s="41">
         <v>53</v>
       </c>
@@ -7107,7 +7139,7 @@
       </c>
       <c r="G59"/>
     </row>
-    <row r="60" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C60" s="41">
         <v>54</v>
       </c>
@@ -7116,7 +7148,7 @@
       </c>
       <c r="G60"/>
     </row>
-    <row r="61" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C61" s="41">
         <v>55</v>
       </c>
@@ -7125,7 +7157,7 @@
       </c>
       <c r="G61"/>
     </row>
-    <row r="62" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C62" s="41">
         <v>56</v>
       </c>
@@ -7134,7 +7166,7 @@
       </c>
       <c r="G62"/>
     </row>
-    <row r="63" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C63" s="41">
         <v>57</v>
       </c>
@@ -7143,7 +7175,7 @@
       </c>
       <c r="G63"/>
     </row>
-    <row r="64" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C64" s="41">
         <v>58</v>
       </c>
@@ -7152,7 +7184,7 @@
       </c>
       <c r="G64"/>
     </row>
-    <row r="65" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C65" s="41">
         <v>59</v>
       </c>
@@ -7161,7 +7193,7 @@
       </c>
       <c r="G65"/>
     </row>
-    <row r="66" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C66" s="41">
         <v>60</v>
       </c>
@@ -7170,7 +7202,7 @@
       </c>
       <c r="G66"/>
     </row>
-    <row r="67" spans="3:12" x14ac:dyDescent="0.25">
+    <row r="67" spans="3:12" x14ac:dyDescent="0.3">
       <c r="J67" s="1"/>
       <c r="K67" s="1"/>
       <c r="L67" s="1"/>

--- a/NEW HR/MERJILLA, JEANETTE.xlsx
+++ b/NEW HR/MERJILLA, JEANETTE.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26501"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASUS\Desktop\LEAVE-CARD\NEW HR\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DOLE\Desktop\LEAVE-CARD\NEW HR\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D3F97535-698D-4134-8F04-4ED0F84FC5F9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570"/>
   </bookViews>
   <sheets>
     <sheet name="2018 LEAVE CREDITS" sheetId="3" r:id="rId1"/>
@@ -27,7 +26,7 @@
     <definedName name="_xlnm.Print_Titles" localSheetId="1">'2017 LEAVE BALANCE'!$1:$9</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">'2018 LEAVE CREDITS'!$1:$9</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -37,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="212" uniqueCount="98">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="214" uniqueCount="98">
   <si>
     <t>PERIOD</t>
   </si>
@@ -336,7 +335,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="4">
     <numFmt numFmtId="164" formatCode="0.000"/>
     <numFmt numFmtId="165" formatCode="mm/dd/yy;@"/>
@@ -718,14 +717,17 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="14" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -735,9 +737,6 @@
     </xf>
     <xf numFmtId="166" fontId="1" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1249,7 +1248,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="Sheet1"/>
@@ -1266,25 +1265,25 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table13" displayName="Table13" ref="A8:K131" totalsRowShown="0" headerRowDxfId="29" headerRowBorderDxfId="28" tableBorderDxfId="27" totalsRowBorderDxfId="26">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table13" displayName="Table13" ref="A8:K132" totalsRowShown="0" headerRowDxfId="29" headerRowBorderDxfId="28" tableBorderDxfId="27" totalsRowBorderDxfId="26">
   <tableColumns count="11">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="PERIOD" dataDxfId="25"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="PARTICULARS" dataDxfId="24"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="EARNED" dataDxfId="23"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Absence Undertime W/ Pay" dataDxfId="22"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="BALANCE" dataDxfId="21">
+    <tableColumn id="1" name="PERIOD" dataDxfId="25"/>
+    <tableColumn id="2" name="PARTICULARS" dataDxfId="24"/>
+    <tableColumn id="3" name="EARNED" dataDxfId="23"/>
+    <tableColumn id="4" name="Absence Undertime W/ Pay" dataDxfId="22"/>
+    <tableColumn id="5" name="BALANCE" dataDxfId="21">
       <calculatedColumnFormula>SUM(Table13[EARNED])-SUM(Table13[Absence Undertime W/ Pay])+CONVERTION!A3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Absence Undertime W/O Pay" dataDxfId="20"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="EARNED " dataDxfId="19">
+    <tableColumn id="6" name="Absence Undertime W/O Pay" dataDxfId="20"/>
+    <tableColumn id="7" name="EARNED " dataDxfId="19">
       <calculatedColumnFormula>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="Absence Undertime  W/ Pay" dataDxfId="18"/>
-    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="BALANCE " dataDxfId="17">
+    <tableColumn id="8" name="Absence Undertime  W/ Pay" dataDxfId="18"/>
+    <tableColumn id="9" name="BALANCE " dataDxfId="17">
       <calculatedColumnFormula>SUM(Table13[[EARNED ]])-SUM(Table13[Absence Undertime  W/ Pay])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="Absence Undertime  W/O Pay" dataDxfId="16"/>
-    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0000-00000B000000}" name="REMARKS" dataDxfId="15"/>
+    <tableColumn id="10" name="Absence Undertime  W/O Pay" dataDxfId="16"/>
+    <tableColumn id="11" name="REMARKS" dataDxfId="15"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
   <extLst>
@@ -1296,25 +1295,25 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Table1" displayName="Table1" ref="A8:K87" totalsRowShown="0" headerRowDxfId="14" headerRowBorderDxfId="13" tableBorderDxfId="12" totalsRowBorderDxfId="11">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A8:K87" totalsRowShown="0" headerRowDxfId="14" headerRowBorderDxfId="13" tableBorderDxfId="12" totalsRowBorderDxfId="11">
   <tableColumns count="11">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="PERIOD" dataDxfId="10"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="PARTICULARS" dataDxfId="9"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0100-000003000000}" name="EARNED" dataDxfId="8"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0100-000004000000}" name="Absence Undertime W/ Pay" dataDxfId="7"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0100-000005000000}" name="BALANCE" dataDxfId="6">
+    <tableColumn id="1" name="PERIOD" dataDxfId="10"/>
+    <tableColumn id="2" name="PARTICULARS" dataDxfId="9"/>
+    <tableColumn id="3" name="EARNED" dataDxfId="8"/>
+    <tableColumn id="4" name="Absence Undertime W/ Pay" dataDxfId="7"/>
+    <tableColumn id="5" name="BALANCE" dataDxfId="6">
       <calculatedColumnFormula>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!A3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0100-000006000000}" name="Absence Undertime W/O Pay" dataDxfId="5"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0100-000007000000}" name="EARNED " dataDxfId="4">
+    <tableColumn id="6" name="Absence Undertime W/O Pay" dataDxfId="5"/>
+    <tableColumn id="7" name="EARNED " dataDxfId="4">
       <calculatedColumnFormula>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0100-000008000000}" name="Absence Undertime  W/ Pay" dataDxfId="3"/>
-    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0100-000009000000}" name="BALANCE " dataDxfId="2">
+    <tableColumn id="8" name="Absence Undertime  W/ Pay" dataDxfId="3"/>
+    <tableColumn id="9" name="BALANCE " dataDxfId="2">
       <calculatedColumnFormula>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0100-00000A000000}" name="Absence Undertime  W/O Pay" dataDxfId="1"/>
-    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0100-00000B000000}" name="REMARKS" dataDxfId="0"/>
+    <tableColumn id="10" name="Absence Undertime  W/O Pay" dataDxfId="1"/>
+    <tableColumn id="11" name="REMARKS" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
   <extLst>
@@ -1621,34 +1620,34 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A2:K131"/>
+  <dimension ref="A2:K132"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A2" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="3696" topLeftCell="A92" activePane="bottomLeft"/>
+      <pane ySplit="3690" topLeftCell="A89" activePane="bottomLeft"/>
       <selection activeCell="I10" sqref="I10"/>
-      <selection pane="bottomLeft" activeCell="B103" sqref="B103"/>
+      <selection pane="bottomLeft" activeCell="I105" sqref="I105"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.33203125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="16.5546875" style="1" customWidth="1"/>
-    <col min="3" max="3" width="12.109375" style="31" customWidth="1"/>
-    <col min="4" max="4" width="12.6640625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="11.6640625" style="1" customWidth="1"/>
-    <col min="6" max="6" width="12.6640625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="12.109375" style="31" customWidth="1"/>
-    <col min="8" max="8" width="12.6640625" style="1" customWidth="1"/>
-    <col min="9" max="9" width="11.6640625" style="1" customWidth="1"/>
-    <col min="10" max="10" width="12.6640625" style="1" customWidth="1"/>
-    <col min="11" max="11" width="24.88671875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="10.28515625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="16.5703125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="12.140625" style="31" customWidth="1"/>
+    <col min="4" max="4" width="12.7109375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="11.7109375" style="1" customWidth="1"/>
+    <col min="6" max="6" width="12.7109375" style="1" customWidth="1"/>
+    <col min="7" max="7" width="12.140625" style="31" customWidth="1"/>
+    <col min="8" max="8" width="12.7109375" style="1" customWidth="1"/>
+    <col min="9" max="9" width="11.7109375" style="1" customWidth="1"/>
+    <col min="10" max="10" width="12.7109375" style="1" customWidth="1"/>
+    <col min="11" max="11" width="24.85546875" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:11" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:11" ht="20.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="30" t="s">
         <v>9</v>
       </c>
@@ -1660,16 +1659,16 @@
         <v>14</v>
       </c>
       <c r="E2" s="11"/>
-      <c r="F2" s="50"/>
-      <c r="G2" s="50"/>
+      <c r="F2" s="53"/>
+      <c r="G2" s="53"/>
       <c r="H2" s="29" t="s">
         <v>10</v>
       </c>
       <c r="I2" s="26"/>
-      <c r="J2" s="51"/>
-      <c r="K2" s="52"/>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="J2" s="50"/>
+      <c r="K2" s="51"/>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="19" t="s">
         <v>15</v>
       </c>
@@ -1678,16 +1677,16 @@
       <c r="D3" s="23" t="s">
         <v>13</v>
       </c>
-      <c r="F3" s="53"/>
-      <c r="G3" s="51"/>
+      <c r="F3" s="54"/>
+      <c r="G3" s="50"/>
       <c r="H3" s="27" t="s">
         <v>11</v>
       </c>
       <c r="I3" s="27"/>
-      <c r="J3" s="54"/>
-      <c r="K3" s="55"/>
-    </row>
-    <row r="4" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="J3" s="55"/>
+      <c r="K3" s="56"/>
+    </row>
+    <row r="4" spans="1:11" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="19" t="s">
         <v>16</v>
       </c>
@@ -1698,16 +1697,16 @@
       <c r="D4" s="23" t="s">
         <v>12</v>
       </c>
-      <c r="F4" s="51"/>
-      <c r="G4" s="51"/>
+      <c r="F4" s="50"/>
+      <c r="G4" s="50"/>
       <c r="H4" s="27" t="s">
         <v>17</v>
       </c>
       <c r="I4" s="27"/>
-      <c r="J4" s="51"/>
-      <c r="K4" s="52"/>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="J4" s="50"/>
+      <c r="K4" s="51"/>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="17"/>
       <c r="H5" s="28" t="s">
         <v>18</v>
@@ -1715,7 +1714,7 @@
       <c r="I5" s="28"/>
       <c r="K5" s="4"/>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="18"/>
       <c r="B6" s="8"/>
       <c r="C6" s="32"/>
@@ -1728,24 +1727,24 @@
       <c r="J6" s="8"/>
       <c r="K6" s="20"/>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="15"/>
       <c r="B7" s="15"/>
-      <c r="C7" s="56" t="s">
+      <c r="C7" s="52" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="56"/>
-      <c r="E7" s="56"/>
-      <c r="F7" s="56"/>
-      <c r="G7" s="56" t="s">
+      <c r="D7" s="52"/>
+      <c r="E7" s="52"/>
+      <c r="F7" s="52"/>
+      <c r="G7" s="52" t="s">
         <v>7</v>
       </c>
-      <c r="H7" s="56"/>
-      <c r="I7" s="56"/>
-      <c r="J7" s="56"/>
+      <c r="H7" s="52"/>
+      <c r="I7" s="52"/>
+      <c r="J7" s="52"/>
       <c r="K7" s="15"/>
     </row>
-    <row r="8" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A8" s="7" t="s">
         <v>0</v>
       </c>
@@ -1780,7 +1779,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="24"/>
       <c r="B9" s="25" t="s">
         <v>23</v>
@@ -1789,7 +1788,7 @@
       <c r="D9" s="12"/>
       <c r="E9" s="14">
         <f>SUM(Table13[EARNED])-SUM(Table13[Absence Undertime W/ Pay])</f>
-        <v>15.25</v>
+        <v>16.75</v>
       </c>
       <c r="F9" s="12"/>
       <c r="G9" s="14" t="str">
@@ -1799,12 +1798,12 @@
       <c r="H9" s="12"/>
       <c r="I9" s="14">
         <f>SUM(Table13[[EARNED ]])-SUM(Table13[Absence Undertime  W/ Pay])</f>
-        <v>36.25</v>
+        <v>37.75</v>
       </c>
       <c r="J9" s="12"/>
       <c r="K9" s="21"/>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="38" t="s">
         <v>48</v>
       </c>
@@ -1826,7 +1825,7 @@
       <c r="J10" s="12"/>
       <c r="K10" s="21"/>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="24">
         <v>43101</v>
       </c>
@@ -1846,7 +1845,7 @@
       <c r="J11" s="12"/>
       <c r="K11" s="39"/>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" s="24">
         <v>43132</v>
       </c>
@@ -1872,7 +1871,7 @@
         <v>43158</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="24">
         <v>43160</v>
       </c>
@@ -1892,7 +1891,7 @@
       <c r="J13" s="12"/>
       <c r="K13" s="39"/>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="24">
         <v>43191</v>
       </c>
@@ -1912,7 +1911,7 @@
       <c r="J14" s="12"/>
       <c r="K14" s="21"/>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" s="24">
         <v>43221</v>
       </c>
@@ -1932,7 +1931,7 @@
       <c r="J15" s="12"/>
       <c r="K15" s="21"/>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" s="24">
         <v>43252</v>
       </c>
@@ -1952,7 +1951,7 @@
       <c r="J16" s="12"/>
       <c r="K16" s="39"/>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" s="24">
         <v>43282</v>
       </c>
@@ -1972,7 +1971,7 @@
       <c r="J17" s="12"/>
       <c r="K17" s="21"/>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" s="24">
         <v>43313</v>
       </c>
@@ -1998,7 +1997,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" s="24"/>
       <c r="B19" s="21" t="s">
         <v>53</v>
@@ -2020,7 +2019,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" s="24">
         <v>43344</v>
       </c>
@@ -2040,7 +2039,7 @@
       <c r="J20" s="12"/>
       <c r="K20" s="21"/>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" s="24">
         <v>43374</v>
       </c>
@@ -2066,7 +2065,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" s="24">
         <v>43435</v>
       </c>
@@ -2092,7 +2091,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" s="38" t="s">
         <v>58</v>
       </c>
@@ -2110,7 +2109,7 @@
       <c r="J23" s="12"/>
       <c r="K23" s="21"/>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24" s="24">
         <v>43466</v>
       </c>
@@ -2136,7 +2135,7 @@
         <v>43493</v>
       </c>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25" s="24"/>
       <c r="B25" s="21" t="s">
         <v>49</v>
@@ -2158,7 +2157,7 @@
         <v>43494</v>
       </c>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A26" s="24"/>
       <c r="B26" s="21" t="s">
         <v>44</v>
@@ -2180,7 +2179,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A27" s="24">
         <v>43497</v>
       </c>
@@ -2206,7 +2205,7 @@
         <v>43510</v>
       </c>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A28" s="24"/>
       <c r="B28" s="21" t="s">
         <v>47</v>
@@ -2228,7 +2227,7 @@
         <v>43504</v>
       </c>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A29" s="24">
         <v>43525</v>
       </c>
@@ -2254,7 +2253,7 @@
         <v>43530</v>
       </c>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A30" s="24"/>
       <c r="B30" s="21" t="s">
         <v>47</v>
@@ -2276,7 +2275,7 @@
         <v>43537</v>
       </c>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A31" s="24"/>
       <c r="B31" s="21" t="s">
         <v>47</v>
@@ -2298,7 +2297,7 @@
         <v>43546</v>
       </c>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A32" s="24">
         <v>43556</v>
       </c>
@@ -2318,7 +2317,7 @@
       <c r="J32" s="12"/>
       <c r="K32" s="21"/>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A33" s="24">
         <v>43586</v>
       </c>
@@ -2344,7 +2343,7 @@
         <v>43608</v>
       </c>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A34" s="24">
         <v>43617</v>
       </c>
@@ -2370,7 +2369,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A35" s="24">
         <v>43647</v>
       </c>
@@ -2396,7 +2395,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A36" s="24"/>
       <c r="B36" s="21" t="s">
         <v>63</v>
@@ -2418,7 +2417,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A37" s="24">
         <v>43678</v>
       </c>
@@ -2444,7 +2443,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A38" s="24"/>
       <c r="B38" s="21" t="s">
         <v>47</v>
@@ -2466,7 +2465,7 @@
         <v>43671</v>
       </c>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A39" s="24"/>
       <c r="B39" s="21" t="s">
         <v>47</v>
@@ -2488,7 +2487,7 @@
         <v>43679</v>
       </c>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A40" s="24"/>
       <c r="B40" s="21" t="s">
         <v>65</v>
@@ -2510,7 +2509,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A41" s="24">
         <v>43709</v>
       </c>
@@ -2530,7 +2529,7 @@
       <c r="J41" s="12"/>
       <c r="K41" s="21"/>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A42" s="24">
         <v>43739</v>
       </c>
@@ -2556,7 +2555,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A43" s="24"/>
       <c r="B43" s="21" t="s">
         <v>63</v>
@@ -2578,7 +2577,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A44" s="24"/>
       <c r="B44" s="21" t="s">
         <v>47</v>
@@ -2600,7 +2599,7 @@
         <v>43747</v>
       </c>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A45" s="24"/>
       <c r="B45" s="21" t="s">
         <v>47</v>
@@ -2622,7 +2621,7 @@
         <v>43752</v>
       </c>
     </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A46" s="24">
         <v>43770</v>
       </c>
@@ -2648,7 +2647,7 @@
         <v>43780</v>
       </c>
     </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A47" s="24"/>
       <c r="B47" s="21" t="s">
         <v>47</v>
@@ -2668,7 +2667,7 @@
       <c r="J47" s="12"/>
       <c r="K47" s="21"/>
     </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A48" s="24">
         <v>43800</v>
       </c>
@@ -2694,7 +2693,7 @@
         <v>43805</v>
       </c>
     </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A49" s="38" t="s">
         <v>69</v>
       </c>
@@ -2712,7 +2711,7 @@
       <c r="J49" s="12"/>
       <c r="K49" s="21"/>
     </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A50" s="24">
         <v>43831</v>
       </c>
@@ -2738,7 +2737,7 @@
         <v>43844</v>
       </c>
     </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A51" s="24">
         <v>43862</v>
       </c>
@@ -2764,7 +2763,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A52" s="24">
         <v>43891</v>
       </c>
@@ -2790,7 +2789,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A53" s="24">
         <v>43922</v>
       </c>
@@ -2810,7 +2809,7 @@
       <c r="J53" s="12"/>
       <c r="K53" s="21"/>
     </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A54" s="24">
         <v>43952</v>
       </c>
@@ -2830,7 +2829,7 @@
       <c r="J54" s="12"/>
       <c r="K54" s="21"/>
     </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A55" s="24">
         <v>43983</v>
       </c>
@@ -2856,7 +2855,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A56" s="24">
         <v>44013</v>
       </c>
@@ -2882,7 +2881,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A57" s="24"/>
       <c r="B57" s="21" t="s">
         <v>47</v>
@@ -2904,7 +2903,7 @@
         <v>44006</v>
       </c>
     </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A58" s="24"/>
       <c r="B58" s="21" t="s">
         <v>44</v>
@@ -2926,7 +2925,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A59" s="24"/>
       <c r="B59" s="21" t="s">
         <v>51</v>
@@ -2948,7 +2947,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A60" s="24">
         <v>44044</v>
       </c>
@@ -2974,7 +2973,7 @@
         <v>44054</v>
       </c>
     </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A61" s="24">
         <v>44075</v>
       </c>
@@ -3000,7 +2999,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A62" s="24"/>
       <c r="B62" s="21" t="s">
         <v>51</v>
@@ -3022,7 +3021,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A63" s="24">
         <v>44105</v>
       </c>
@@ -3042,7 +3041,7 @@
       <c r="J63" s="12"/>
       <c r="K63" s="21"/>
     </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A64" s="24">
         <v>44136</v>
       </c>
@@ -3062,7 +3061,7 @@
       <c r="J64" s="12"/>
       <c r="K64" s="21"/>
     </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A65" s="24">
         <v>44166</v>
       </c>
@@ -3088,7 +3087,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A66" s="38" t="s">
         <v>83</v>
       </c>
@@ -3106,7 +3105,7 @@
       <c r="J66" s="12"/>
       <c r="K66" s="21"/>
     </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A67" s="24">
         <v>44197</v>
       </c>
@@ -3126,7 +3125,7 @@
       <c r="J67" s="12"/>
       <c r="K67" s="21"/>
     </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A68" s="24">
         <v>44228</v>
       </c>
@@ -3146,7 +3145,7 @@
       <c r="J68" s="12"/>
       <c r="K68" s="21"/>
     </row>
-    <row r="69" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A69" s="24">
         <v>44256</v>
       </c>
@@ -3170,7 +3169,7 @@
       <c r="J69" s="12"/>
       <c r="K69" s="21"/>
     </row>
-    <row r="70" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A70" s="24">
         <v>44287</v>
       </c>
@@ -3190,7 +3189,7 @@
       <c r="J70" s="12"/>
       <c r="K70" s="21"/>
     </row>
-    <row r="71" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A71" s="24">
         <v>44317</v>
       </c>
@@ -3210,7 +3209,7 @@
       <c r="J71" s="12"/>
       <c r="K71" s="21"/>
     </row>
-    <row r="72" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A72" s="24">
         <v>44348</v>
       </c>
@@ -3230,7 +3229,7 @@
       <c r="J72" s="12"/>
       <c r="K72" s="21"/>
     </row>
-    <row r="73" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A73" s="24">
         <v>44378</v>
       </c>
@@ -3250,7 +3249,7 @@
       <c r="J73" s="12"/>
       <c r="K73" s="21"/>
     </row>
-    <row r="74" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A74" s="24">
         <v>44409</v>
       </c>
@@ -3270,7 +3269,7 @@
       <c r="J74" s="12"/>
       <c r="K74" s="21"/>
     </row>
-    <row r="75" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A75" s="24">
         <v>44440</v>
       </c>
@@ -3290,7 +3289,7 @@
       <c r="J75" s="12"/>
       <c r="K75" s="21"/>
     </row>
-    <row r="76" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A76" s="24">
         <v>44470</v>
       </c>
@@ -3310,7 +3309,7 @@
       <c r="J76" s="12"/>
       <c r="K76" s="21"/>
     </row>
-    <row r="77" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A77" s="24">
         <v>44501</v>
       </c>
@@ -3330,7 +3329,7 @@
       <c r="J77" s="12"/>
       <c r="K77" s="21"/>
     </row>
-    <row r="78" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A78" s="24">
         <v>44531</v>
       </c>
@@ -3350,7 +3349,7 @@
       <c r="J78" s="12"/>
       <c r="K78" s="21"/>
     </row>
-    <row r="79" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A79" s="38" t="s">
         <v>43</v>
       </c>
@@ -3368,7 +3367,7 @@
       <c r="J79" s="12"/>
       <c r="K79" s="21"/>
     </row>
-    <row r="80" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A80" s="24">
         <v>44562</v>
       </c>
@@ -3388,7 +3387,7 @@
       <c r="J80" s="12"/>
       <c r="K80" s="21"/>
     </row>
-    <row r="81" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A81" s="24">
         <v>44593</v>
       </c>
@@ -3408,7 +3407,7 @@
       <c r="J81" s="12"/>
       <c r="K81" s="21"/>
     </row>
-    <row r="82" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A82" s="24">
         <v>44621</v>
       </c>
@@ -3428,7 +3427,7 @@
       <c r="J82" s="12"/>
       <c r="K82" s="21"/>
     </row>
-    <row r="83" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A83" s="24">
         <v>44652</v>
       </c>
@@ -3448,7 +3447,7 @@
       <c r="J83" s="12"/>
       <c r="K83" s="21"/>
     </row>
-    <row r="84" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A84" s="24">
         <v>44682</v>
       </c>
@@ -3468,7 +3467,7 @@
       <c r="J84" s="12"/>
       <c r="K84" s="21"/>
     </row>
-    <row r="85" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A85" s="24">
         <v>44713</v>
       </c>
@@ -3494,7 +3493,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="86" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A86" s="24">
         <v>44743</v>
       </c>
@@ -3514,7 +3513,7 @@
       <c r="J86" s="12"/>
       <c r="K86" s="39"/>
     </row>
-    <row r="87" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A87" s="24">
         <v>44774</v>
       </c>
@@ -3534,7 +3533,7 @@
       <c r="J87" s="12"/>
       <c r="K87" s="39"/>
     </row>
-    <row r="88" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A88" s="24">
         <v>44805</v>
       </c>
@@ -3554,7 +3553,7 @@
       <c r="J88" s="12"/>
       <c r="K88" s="39"/>
     </row>
-    <row r="89" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A89" s="24">
         <v>44835</v>
       </c>
@@ -3574,7 +3573,7 @@
       <c r="J89" s="13"/>
       <c r="K89" s="47"/>
     </row>
-    <row r="90" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A90" s="24">
         <v>44866</v>
       </c>
@@ -3594,7 +3593,7 @@
       <c r="J90" s="12"/>
       <c r="K90" s="21"/>
     </row>
-    <row r="91" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A91" s="24">
         <v>44896</v>
       </c>
@@ -3620,7 +3619,7 @@
         <v>44914</v>
       </c>
     </row>
-    <row r="92" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A92" s="38" t="s">
         <v>91</v>
       </c>
@@ -3638,7 +3637,7 @@
       <c r="J92" s="12"/>
       <c r="K92" s="21"/>
     </row>
-    <row r="93" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A93" s="24">
         <v>44927</v>
       </c>
@@ -3664,7 +3663,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="94" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A94" s="24">
         <v>44958</v>
       </c>
@@ -3690,7 +3689,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="95" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A95" s="24"/>
       <c r="B95" s="12" t="s">
         <v>47</v>
@@ -3712,7 +3711,7 @@
         <v>44958</v>
       </c>
     </row>
-    <row r="96" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A96" s="24"/>
       <c r="B96" s="12" t="s">
         <v>47</v>
@@ -3734,7 +3733,7 @@
         <v>44977</v>
       </c>
     </row>
-    <row r="97" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A97" s="24">
         <v>44986</v>
       </c>
@@ -3760,7 +3759,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="98" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A98" s="24">
         <v>45017</v>
       </c>
@@ -3780,7 +3779,7 @@
       <c r="J98" s="12"/>
       <c r="K98" s="21"/>
     </row>
-    <row r="99" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A99" s="24">
         <v>45047</v>
       </c>
@@ -3806,7 +3805,7 @@
         <v>45056</v>
       </c>
     </row>
-    <row r="100" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A100" s="24">
         <v>45078</v>
       </c>
@@ -3830,22 +3829,24 @@
       <c r="J100" s="12"/>
       <c r="K100" s="21"/>
     </row>
-    <row r="101" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A101" s="24">
         <v>45108</v>
       </c>
       <c r="B101" s="12" t="s">
         <v>49</v>
       </c>
-      <c r="C101" s="14"/>
+      <c r="C101" s="14">
+        <v>1.25</v>
+      </c>
       <c r="D101" s="12">
         <v>1</v>
       </c>
       <c r="E101" s="9"/>
       <c r="F101" s="12"/>
-      <c r="G101" s="14" t="str">
-        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G101" s="14">
+        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H101" s="12"/>
       <c r="I101" s="9"/>
@@ -3854,7 +3855,7 @@
         <v>45125</v>
       </c>
     </row>
-    <row r="102" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A102" s="24"/>
       <c r="B102" s="12" t="s">
         <v>50</v>
@@ -3874,31 +3875,37 @@
         <v>97</v>
       </c>
     </row>
-    <row r="103" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A103" s="24">
         <v>45139</v>
       </c>
       <c r="B103" s="12"/>
-      <c r="C103" s="14"/>
+      <c r="C103" s="14">
+        <v>1.25</v>
+      </c>
       <c r="D103" s="12"/>
       <c r="E103" s="9"/>
       <c r="F103" s="12"/>
-      <c r="G103" s="14" t="str">
-        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G103" s="14">
+        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H103" s="12"/>
       <c r="I103" s="9"/>
       <c r="J103" s="12"/>
       <c r="K103" s="21"/>
     </row>
-    <row r="104" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A104" s="24">
         <v>45170</v>
       </c>
-      <c r="B104" s="12"/>
+      <c r="B104" s="12" t="s">
+        <v>49</v>
+      </c>
       <c r="C104" s="14"/>
-      <c r="D104" s="12"/>
+      <c r="D104" s="12">
+        <v>1</v>
+      </c>
       <c r="E104" s="9"/>
       <c r="F104" s="12"/>
       <c r="G104" s="14" t="str">
@@ -3908,29 +3915,35 @@
       <c r="H104" s="12"/>
       <c r="I104" s="9"/>
       <c r="J104" s="12"/>
-      <c r="K104" s="21"/>
-    </row>
-    <row r="105" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A105" s="24">
-        <v>45200</v>
-      </c>
-      <c r="B105" s="12"/>
+      <c r="K104" s="39">
+        <v>45188</v>
+      </c>
+    </row>
+    <row r="105" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A105" s="24"/>
+      <c r="B105" s="21" t="s">
+        <v>47</v>
+      </c>
       <c r="C105" s="14"/>
-      <c r="D105" s="12"/>
+      <c r="D105" s="40"/>
       <c r="E105" s="9"/>
-      <c r="F105" s="12"/>
+      <c r="F105" s="21"/>
       <c r="G105" s="14" t="str">
         <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H105" s="12"/>
+      <c r="H105" s="40">
+        <v>1</v>
+      </c>
       <c r="I105" s="9"/>
       <c r="J105" s="12"/>
-      <c r="K105" s="21"/>
-    </row>
-    <row r="106" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="K105" s="39">
+        <v>45180</v>
+      </c>
+    </row>
+    <row r="106" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A106" s="24">
-        <v>45231</v>
+        <v>45200</v>
       </c>
       <c r="B106" s="12"/>
       <c r="C106" s="14"/>
@@ -3946,9 +3959,9 @@
       <c r="J106" s="12"/>
       <c r="K106" s="21"/>
     </row>
-    <row r="107" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A107" s="24">
-        <v>45261</v>
+        <v>45231</v>
       </c>
       <c r="B107" s="12"/>
       <c r="C107" s="14"/>
@@ -3964,9 +3977,9 @@
       <c r="J107" s="12"/>
       <c r="K107" s="21"/>
     </row>
-    <row r="108" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A108" s="24">
-        <v>45292</v>
+        <v>45261</v>
       </c>
       <c r="B108" s="12"/>
       <c r="C108" s="14"/>
@@ -3982,9 +3995,9 @@
       <c r="J108" s="12"/>
       <c r="K108" s="21"/>
     </row>
-    <row r="109" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A109" s="24">
-        <v>45323</v>
+        <v>45292</v>
       </c>
       <c r="B109" s="12"/>
       <c r="C109" s="14"/>
@@ -4000,9 +4013,9 @@
       <c r="J109" s="12"/>
       <c r="K109" s="21"/>
     </row>
-    <row r="110" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A110" s="24">
-        <v>45352</v>
+        <v>45323</v>
       </c>
       <c r="B110" s="12"/>
       <c r="C110" s="14"/>
@@ -4018,9 +4031,9 @@
       <c r="J110" s="12"/>
       <c r="K110" s="21"/>
     </row>
-    <row r="111" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A111" s="24">
-        <v>45383</v>
+        <v>45352</v>
       </c>
       <c r="B111" s="12"/>
       <c r="C111" s="14"/>
@@ -4036,9 +4049,9 @@
       <c r="J111" s="12"/>
       <c r="K111" s="21"/>
     </row>
-    <row r="112" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A112" s="24">
-        <v>45413</v>
+        <v>45383</v>
       </c>
       <c r="B112" s="12"/>
       <c r="C112" s="14"/>
@@ -4054,9 +4067,9 @@
       <c r="J112" s="12"/>
       <c r="K112" s="21"/>
     </row>
-    <row r="113" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A113" s="24">
-        <v>45444</v>
+        <v>45413</v>
       </c>
       <c r="B113" s="12"/>
       <c r="C113" s="14"/>
@@ -4072,9 +4085,9 @@
       <c r="J113" s="12"/>
       <c r="K113" s="21"/>
     </row>
-    <row r="114" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A114" s="24">
-        <v>45474</v>
+        <v>45444</v>
       </c>
       <c r="B114" s="12"/>
       <c r="C114" s="14"/>
@@ -4090,27 +4103,27 @@
       <c r="J114" s="12"/>
       <c r="K114" s="21"/>
     </row>
-    <row r="115" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A115" s="24">
+        <v>45474</v>
+      </c>
+      <c r="B115" s="12"/>
+      <c r="C115" s="14"/>
+      <c r="D115" s="12"/>
+      <c r="E115" s="9"/>
+      <c r="F115" s="12"/>
+      <c r="G115" s="14" t="str">
+        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H115" s="12"/>
+      <c r="I115" s="9"/>
+      <c r="J115" s="12"/>
+      <c r="K115" s="21"/>
+    </row>
+    <row r="116" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A116" s="24">
         <v>45505</v>
-      </c>
-      <c r="B115" s="13"/>
-      <c r="C115" s="14"/>
-      <c r="D115" s="13"/>
-      <c r="E115" s="10"/>
-      <c r="F115" s="13"/>
-      <c r="G115" s="14" t="str">
-        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H115" s="13"/>
-      <c r="I115" s="10"/>
-      <c r="J115" s="13"/>
-      <c r="K115" s="16"/>
-    </row>
-    <row r="116" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A116" s="24">
-        <v>45536</v>
       </c>
       <c r="B116" s="13"/>
       <c r="C116" s="14"/>
@@ -4121,14 +4134,14 @@
         <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H116" s="12"/>
-      <c r="I116" s="9"/>
-      <c r="J116" s="12"/>
-      <c r="K116" s="21"/>
-    </row>
-    <row r="117" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="H116" s="13"/>
+      <c r="I116" s="10"/>
+      <c r="J116" s="13"/>
+      <c r="K116" s="16"/>
+    </row>
+    <row r="117" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A117" s="24">
-        <v>45566</v>
+        <v>45536</v>
       </c>
       <c r="B117" s="13"/>
       <c r="C117" s="14"/>
@@ -4144,9 +4157,9 @@
       <c r="J117" s="12"/>
       <c r="K117" s="21"/>
     </row>
-    <row r="118" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A118" s="24">
-        <v>45597</v>
+        <v>45566</v>
       </c>
       <c r="B118" s="13"/>
       <c r="C118" s="14"/>
@@ -4162,9 +4175,9 @@
       <c r="J118" s="12"/>
       <c r="K118" s="21"/>
     </row>
-    <row r="119" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A119" s="24">
-        <v>45627</v>
+        <v>45597</v>
       </c>
       <c r="B119" s="13"/>
       <c r="C119" s="14"/>
@@ -4180,9 +4193,9 @@
       <c r="J119" s="12"/>
       <c r="K119" s="21"/>
     </row>
-    <row r="120" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A120" s="24">
-        <v>45658</v>
+        <v>45627</v>
       </c>
       <c r="B120" s="13"/>
       <c r="C120" s="14"/>
@@ -4198,8 +4211,10 @@
       <c r="J120" s="12"/>
       <c r="K120" s="21"/>
     </row>
-    <row r="121" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A121" s="24"/>
+    <row r="121" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A121" s="24">
+        <v>45658</v>
+      </c>
       <c r="B121" s="13"/>
       <c r="C121" s="14"/>
       <c r="D121" s="13"/>
@@ -4214,7 +4229,7 @@
       <c r="J121" s="12"/>
       <c r="K121" s="21"/>
     </row>
-    <row r="122" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A122" s="24"/>
       <c r="B122" s="13"/>
       <c r="C122" s="14"/>
@@ -4230,7 +4245,7 @@
       <c r="J122" s="12"/>
       <c r="K122" s="21"/>
     </row>
-    <row r="123" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A123" s="24"/>
       <c r="B123" s="13"/>
       <c r="C123" s="14"/>
@@ -4246,7 +4261,7 @@
       <c r="J123" s="12"/>
       <c r="K123" s="21"/>
     </row>
-    <row r="124" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A124" s="24"/>
       <c r="B124" s="13"/>
       <c r="C124" s="14"/>
@@ -4262,7 +4277,7 @@
       <c r="J124" s="12"/>
       <c r="K124" s="21"/>
     </row>
-    <row r="125" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A125" s="24"/>
       <c r="B125" s="13"/>
       <c r="C125" s="14"/>
@@ -4278,7 +4293,7 @@
       <c r="J125" s="12"/>
       <c r="K125" s="21"/>
     </row>
-    <row r="126" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A126" s="24"/>
       <c r="B126" s="13"/>
       <c r="C126" s="14"/>
@@ -4289,28 +4304,28 @@
         <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H126" s="13"/>
-      <c r="I126" s="10"/>
-      <c r="J126" s="13"/>
-      <c r="K126" s="16"/>
-    </row>
-    <row r="127" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="H126" s="12"/>
+      <c r="I126" s="9"/>
+      <c r="J126" s="12"/>
+      <c r="K126" s="21"/>
+    </row>
+    <row r="127" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A127" s="24"/>
-      <c r="B127" s="12"/>
+      <c r="B127" s="13"/>
       <c r="C127" s="14"/>
-      <c r="D127" s="12"/>
-      <c r="E127" s="9"/>
-      <c r="F127" s="12"/>
+      <c r="D127" s="13"/>
+      <c r="E127" s="10"/>
+      <c r="F127" s="13"/>
       <c r="G127" s="14" t="str">
         <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H127" s="12"/>
-      <c r="I127" s="9"/>
-      <c r="J127" s="12"/>
-      <c r="K127" s="21"/>
-    </row>
-    <row r="128" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="H127" s="13"/>
+      <c r="I127" s="10"/>
+      <c r="J127" s="13"/>
+      <c r="K127" s="16"/>
+    </row>
+    <row r="128" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A128" s="24"/>
       <c r="B128" s="12"/>
       <c r="C128" s="14"/>
@@ -4326,7 +4341,7 @@
       <c r="J128" s="12"/>
       <c r="K128" s="21"/>
     </row>
-    <row r="129" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A129" s="24"/>
       <c r="B129" s="12"/>
       <c r="C129" s="14"/>
@@ -4342,7 +4357,7 @@
       <c r="J129" s="12"/>
       <c r="K129" s="21"/>
     </row>
-    <row r="130" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A130" s="24"/>
       <c r="B130" s="12"/>
       <c r="C130" s="14"/>
@@ -4358,41 +4373,57 @@
       <c r="J130" s="12"/>
       <c r="K130" s="21"/>
     </row>
-    <row r="131" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A131" s="24"/>
-      <c r="B131" s="13"/>
+      <c r="B131" s="12"/>
       <c r="C131" s="14"/>
-      <c r="D131" s="13"/>
-      <c r="E131" s="10"/>
-      <c r="F131" s="13"/>
+      <c r="D131" s="12"/>
+      <c r="E131" s="9"/>
+      <c r="F131" s="12"/>
       <c r="G131" s="14" t="str">
         <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H131" s="13"/>
-      <c r="I131" s="10"/>
-      <c r="J131" s="13"/>
-      <c r="K131" s="16"/>
+      <c r="H131" s="12"/>
+      <c r="I131" s="9"/>
+      <c r="J131" s="12"/>
+      <c r="K131" s="21"/>
+    </row>
+    <row r="132" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A132" s="24"/>
+      <c r="B132" s="13"/>
+      <c r="C132" s="14"/>
+      <c r="D132" s="13"/>
+      <c r="E132" s="10"/>
+      <c r="F132" s="13"/>
+      <c r="G132" s="14" t="str">
+        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H132" s="13"/>
+      <c r="I132" s="10"/>
+      <c r="J132" s="13"/>
+      <c r="K132" s="16"/>
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="F4:G4"/>
-    <mergeCell ref="J4:K4"/>
-    <mergeCell ref="C7:F7"/>
-    <mergeCell ref="G7:J7"/>
     <mergeCell ref="B2:C2"/>
     <mergeCell ref="F2:G2"/>
     <mergeCell ref="J2:K2"/>
     <mergeCell ref="B3:C3"/>
     <mergeCell ref="F3:G3"/>
     <mergeCell ref="J3:K3"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="F4:G4"/>
+    <mergeCell ref="J4:K4"/>
+    <mergeCell ref="C7:F7"/>
+    <mergeCell ref="G7:J7"/>
   </mergeCells>
   <dataValidations disablePrompts="1" count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4" xr:uid="{00000000-0002-0000-0000-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4">
       <formula1>"PERMANENT, CO-TERMINUS, CASUAL, JOBCON"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2" xr:uid="{00000000-0002-0000-0000-000001000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2">
       <formula1>"1 - Married (and not separated), 2 - Widowed (including living common law), 3 - Separated (including living common law), 4 - Divorced (including living common law), 5 - Single (including living common law)"</formula1>
     </dataValidation>
   </dataValidations>
@@ -4415,34 +4446,34 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A2:K87"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="3696" topLeftCell="A35" activePane="bottomLeft"/>
+      <pane ySplit="3690" topLeftCell="A35" activePane="bottomLeft"/>
       <selection activeCell="B4" sqref="B4:C4"/>
-      <selection pane="bottomLeft" activeCell="K53" sqref="K53"/>
+      <selection pane="bottomLeft" activeCell="B58" sqref="B58"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.33203125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="16.5546875" style="1" customWidth="1"/>
-    <col min="3" max="3" width="12.109375" style="31" customWidth="1"/>
-    <col min="4" max="4" width="12.6640625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="11.6640625" style="1" customWidth="1"/>
-    <col min="6" max="6" width="12.6640625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="12.109375" style="31" customWidth="1"/>
-    <col min="8" max="8" width="12.6640625" style="1" customWidth="1"/>
-    <col min="9" max="9" width="11.6640625" style="1" customWidth="1"/>
-    <col min="10" max="10" width="12.6640625" style="1" customWidth="1"/>
-    <col min="11" max="11" width="24.88671875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="10.28515625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="16.5703125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="12.140625" style="31" customWidth="1"/>
+    <col min="4" max="4" width="12.7109375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="11.7109375" style="1" customWidth="1"/>
+    <col min="6" max="6" width="12.7109375" style="1" customWidth="1"/>
+    <col min="7" max="7" width="12.140625" style="31" customWidth="1"/>
+    <col min="8" max="8" width="12.7109375" style="1" customWidth="1"/>
+    <col min="9" max="9" width="11.7109375" style="1" customWidth="1"/>
+    <col min="10" max="10" width="12.7109375" style="1" customWidth="1"/>
+    <col min="11" max="11" width="24.85546875" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:11" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:11" ht="20.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="30" t="s">
         <v>9</v>
       </c>
@@ -4454,16 +4485,16 @@
         <v>14</v>
       </c>
       <c r="E2" s="11"/>
-      <c r="F2" s="50"/>
-      <c r="G2" s="50"/>
+      <c r="F2" s="53"/>
+      <c r="G2" s="53"/>
       <c r="H2" s="29" t="s">
         <v>10</v>
       </c>
       <c r="I2" s="26"/>
-      <c r="J2" s="51"/>
-      <c r="K2" s="52"/>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="J2" s="50"/>
+      <c r="K2" s="51"/>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="19" t="s">
         <v>15</v>
       </c>
@@ -4472,16 +4503,16 @@
       <c r="D3" s="23" t="s">
         <v>13</v>
       </c>
-      <c r="F3" s="53"/>
-      <c r="G3" s="51"/>
+      <c r="F3" s="54"/>
+      <c r="G3" s="50"/>
       <c r="H3" s="27" t="s">
         <v>11</v>
       </c>
       <c r="I3" s="27"/>
-      <c r="J3" s="54"/>
-      <c r="K3" s="55"/>
-    </row>
-    <row r="4" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="J3" s="55"/>
+      <c r="K3" s="56"/>
+    </row>
+    <row r="4" spans="1:11" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="19" t="s">
         <v>16</v>
       </c>
@@ -4492,16 +4523,16 @@
       <c r="D4" s="23" t="s">
         <v>12</v>
       </c>
-      <c r="F4" s="51"/>
-      <c r="G4" s="51"/>
+      <c r="F4" s="50"/>
+      <c r="G4" s="50"/>
       <c r="H4" s="27" t="s">
         <v>17</v>
       </c>
       <c r="I4" s="27"/>
-      <c r="J4" s="51"/>
-      <c r="K4" s="52"/>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="J4" s="50"/>
+      <c r="K4" s="51"/>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="17"/>
       <c r="H5" s="28" t="s">
         <v>18</v>
@@ -4509,7 +4540,7 @@
       <c r="I5" s="28"/>
       <c r="K5" s="4"/>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="18"/>
       <c r="B6" s="8"/>
       <c r="C6" s="32"/>
@@ -4522,24 +4553,24 @@
       <c r="J6" s="8"/>
       <c r="K6" s="20"/>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="15"/>
       <c r="B7" s="15"/>
-      <c r="C7" s="56" t="s">
+      <c r="C7" s="52" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="56"/>
-      <c r="E7" s="56"/>
-      <c r="F7" s="56"/>
-      <c r="G7" s="56" t="s">
+      <c r="D7" s="52"/>
+      <c r="E7" s="52"/>
+      <c r="F7" s="52"/>
+      <c r="G7" s="52" t="s">
         <v>7</v>
       </c>
-      <c r="H7" s="56"/>
-      <c r="I7" s="56"/>
-      <c r="J7" s="56"/>
+      <c r="H7" s="52"/>
+      <c r="I7" s="52"/>
+      <c r="J7" s="52"/>
       <c r="K7" s="15"/>
     </row>
-    <row r="8" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A8" s="7" t="s">
         <v>0</v>
       </c>
@@ -4574,7 +4605,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="24"/>
       <c r="B9" s="25" t="s">
         <v>23</v>
@@ -4598,7 +4629,7 @@
       <c r="J9" s="12"/>
       <c r="K9" s="21"/>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="38" t="s">
         <v>48</v>
       </c>
@@ -4620,7 +4651,7 @@
       <c r="J10" s="12"/>
       <c r="K10" s="21"/>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="24">
         <v>43252</v>
       </c>
@@ -4642,7 +4673,7 @@
         <v>43304</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" s="24"/>
       <c r="B12" s="21" t="s">
         <v>50</v>
@@ -4662,7 +4693,7 @@
         <v>43291</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="38" t="s">
         <v>58</v>
       </c>
@@ -4680,7 +4711,7 @@
       <c r="J13" s="12"/>
       <c r="K13" s="21"/>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="24">
         <v>43647</v>
       </c>
@@ -4702,7 +4733,7 @@
         <v>43656</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" s="38" t="s">
         <v>69</v>
       </c>
@@ -4720,7 +4751,7 @@
       <c r="J15" s="12"/>
       <c r="K15" s="21"/>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" s="24">
         <v>43831</v>
       </c>
@@ -4742,7 +4773,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" s="24">
         <v>43891</v>
       </c>
@@ -4764,7 +4795,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" s="24">
         <v>44013</v>
       </c>
@@ -4786,7 +4817,7 @@
         <v>44027</v>
       </c>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" s="24"/>
       <c r="B19" s="21" t="s">
         <v>50</v>
@@ -4806,7 +4837,7 @@
         <v>44032</v>
       </c>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" s="24">
         <v>44075</v>
       </c>
@@ -4830,7 +4861,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" s="24"/>
       <c r="B21" s="21" t="s">
         <v>47</v>
@@ -4852,7 +4883,7 @@
         <v>44088</v>
       </c>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" s="24"/>
       <c r="B22" s="21" t="s">
         <v>47</v>
@@ -4874,7 +4905,7 @@
         <v>44095</v>
       </c>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" s="24">
         <v>44166</v>
       </c>
@@ -4898,7 +4929,7 @@
         <v>44166</v>
       </c>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24" s="38" t="s">
         <v>83</v>
       </c>
@@ -4916,7 +4947,7 @@
       <c r="J24" s="12"/>
       <c r="K24" s="21"/>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25" s="24">
         <v>44197</v>
       </c>
@@ -4940,7 +4971,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A26" s="24"/>
       <c r="B26" s="21" t="s">
         <v>44</v>
@@ -4962,7 +4993,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A27" s="24"/>
       <c r="B27" s="21" t="s">
         <v>47</v>
@@ -4984,7 +5015,7 @@
         <v>44217</v>
       </c>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A28" s="24">
         <v>44228</v>
       </c>
@@ -5006,7 +5037,7 @@
       <c r="J28" s="12"/>
       <c r="K28" s="21"/>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A29" s="24"/>
       <c r="B29" s="21" t="s">
         <v>47</v>
@@ -5028,7 +5059,7 @@
         <v>44235</v>
       </c>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A30" s="24"/>
       <c r="B30" s="21" t="s">
         <v>56</v>
@@ -5048,7 +5079,7 @@
       <c r="J30" s="12"/>
       <c r="K30" s="21"/>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A31" s="24">
         <v>44256</v>
       </c>
@@ -5070,7 +5101,7 @@
       <c r="J31" s="12"/>
       <c r="K31" s="21"/>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A32" s="24"/>
       <c r="B32" s="21" t="s">
         <v>47</v>
@@ -5092,7 +5123,7 @@
         <v>44258</v>
       </c>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A33" s="24"/>
       <c r="B33" s="21" t="s">
         <v>47</v>
@@ -5114,7 +5145,7 @@
         <v>44265</v>
       </c>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A34" s="38" t="s">
         <v>43</v>
       </c>
@@ -5132,7 +5163,7 @@
       <c r="J34" s="12"/>
       <c r="K34" s="21"/>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A35" s="24">
         <v>44713</v>
       </c>
@@ -5154,7 +5185,7 @@
       <c r="J35" s="12"/>
       <c r="K35" s="21"/>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A36" s="24"/>
       <c r="B36" s="21" t="s">
         <v>44</v>
@@ -5176,7 +5207,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A37" s="24"/>
       <c r="B37" s="21" t="s">
         <v>47</v>
@@ -5198,7 +5229,7 @@
         <v>44732</v>
       </c>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A38" s="24"/>
       <c r="B38" s="21" t="s">
         <v>50</v>
@@ -5218,7 +5249,7 @@
         <v>44761</v>
       </c>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A39" s="24">
         <v>44743</v>
       </c>
@@ -5242,7 +5273,7 @@
         <v>44769</v>
       </c>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A40" s="24"/>
       <c r="B40" s="21" t="s">
         <v>50</v>
@@ -5262,7 +5293,7 @@
         <v>44764</v>
       </c>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A41" s="24"/>
       <c r="B41" s="21" t="s">
         <v>50</v>
@@ -5282,7 +5313,7 @@
         <v>44753</v>
       </c>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A42" s="24">
         <v>44774</v>
       </c>
@@ -5306,7 +5337,7 @@
         <v>44781</v>
       </c>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A43" s="24"/>
       <c r="B43" s="21" t="s">
         <v>47</v>
@@ -5328,7 +5359,7 @@
         <v>44784</v>
       </c>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A44" s="24">
         <v>44805</v>
       </c>
@@ -5352,7 +5383,7 @@
         <v>44826</v>
       </c>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A45" s="24"/>
       <c r="B45" s="21" t="s">
         <v>47</v>
@@ -5374,7 +5405,7 @@
         <v>44819</v>
       </c>
     </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A46" s="24"/>
       <c r="B46" s="16" t="s">
         <v>47</v>
@@ -5396,7 +5427,7 @@
         <v>44812</v>
       </c>
     </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A47" s="24">
         <v>44835</v>
       </c>
@@ -5420,7 +5451,7 @@
         <v>44858</v>
       </c>
     </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A48" s="24">
         <v>44866</v>
       </c>
@@ -5444,7 +5475,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A49" s="24">
         <v>44866</v>
       </c>
@@ -5468,7 +5499,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A50" s="24">
         <v>44896</v>
       </c>
@@ -5492,7 +5523,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A51" s="38" t="s">
         <v>91</v>
       </c>
@@ -5510,7 +5541,7 @@
       <c r="J51" s="12"/>
       <c r="K51" s="21"/>
     </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A52" s="24">
         <v>45078</v>
       </c>
@@ -5532,7 +5563,7 @@
         <v>45117</v>
       </c>
     </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A53" s="24"/>
       <c r="B53" s="12"/>
       <c r="C53" s="14"/>
@@ -5548,7 +5579,7 @@
       <c r="J53" s="12"/>
       <c r="K53" s="21"/>
     </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A54" s="24"/>
       <c r="B54" s="12"/>
       <c r="C54" s="14"/>
@@ -5564,7 +5595,7 @@
       <c r="J54" s="12"/>
       <c r="K54" s="21"/>
     </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A55" s="24"/>
       <c r="B55" s="12"/>
       <c r="C55" s="14"/>
@@ -5580,7 +5611,7 @@
       <c r="J55" s="12"/>
       <c r="K55" s="21"/>
     </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A56" s="24"/>
       <c r="B56" s="12"/>
       <c r="C56" s="14"/>
@@ -5596,7 +5627,7 @@
       <c r="J56" s="12"/>
       <c r="K56" s="21"/>
     </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A57" s="24"/>
       <c r="B57" s="12"/>
       <c r="C57" s="14"/>
@@ -5612,7 +5643,7 @@
       <c r="J57" s="12"/>
       <c r="K57" s="21"/>
     </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A58" s="24"/>
       <c r="B58" s="12"/>
       <c r="C58" s="14"/>
@@ -5628,7 +5659,7 @@
       <c r="J58" s="12"/>
       <c r="K58" s="21"/>
     </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A59" s="24"/>
       <c r="B59" s="12"/>
       <c r="C59" s="14"/>
@@ -5644,7 +5675,7 @@
       <c r="J59" s="12"/>
       <c r="K59" s="21"/>
     </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A60" s="24"/>
       <c r="B60" s="12"/>
       <c r="C60" s="14"/>
@@ -5660,7 +5691,7 @@
       <c r="J60" s="12"/>
       <c r="K60" s="21"/>
     </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A61" s="24"/>
       <c r="B61" s="12"/>
       <c r="C61" s="14"/>
@@ -5676,7 +5707,7 @@
       <c r="J61" s="12"/>
       <c r="K61" s="21"/>
     </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A62" s="24"/>
       <c r="B62" s="12"/>
       <c r="C62" s="14"/>
@@ -5692,7 +5723,7 @@
       <c r="J62" s="12"/>
       <c r="K62" s="21"/>
     </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A63" s="24"/>
       <c r="B63" s="12"/>
       <c r="C63" s="14"/>
@@ -5708,7 +5739,7 @@
       <c r="J63" s="12"/>
       <c r="K63" s="21"/>
     </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A64" s="24"/>
       <c r="B64" s="12"/>
       <c r="C64" s="14"/>
@@ -5724,7 +5755,7 @@
       <c r="J64" s="12"/>
       <c r="K64" s="21"/>
     </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A65" s="24"/>
       <c r="B65" s="12"/>
       <c r="C65" s="14"/>
@@ -5740,7 +5771,7 @@
       <c r="J65" s="12"/>
       <c r="K65" s="21"/>
     </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A66" s="24"/>
       <c r="B66" s="12"/>
       <c r="C66" s="14"/>
@@ -5756,7 +5787,7 @@
       <c r="J66" s="12"/>
       <c r="K66" s="21"/>
     </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A67" s="24"/>
       <c r="B67" s="12"/>
       <c r="C67" s="14"/>
@@ -5772,7 +5803,7 @@
       <c r="J67" s="12"/>
       <c r="K67" s="21"/>
     </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A68" s="24"/>
       <c r="B68" s="12"/>
       <c r="C68" s="14"/>
@@ -5788,7 +5819,7 @@
       <c r="J68" s="12"/>
       <c r="K68" s="21"/>
     </row>
-    <row r="69" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A69" s="24"/>
       <c r="B69" s="12"/>
       <c r="C69" s="14"/>
@@ -5804,7 +5835,7 @@
       <c r="J69" s="12"/>
       <c r="K69" s="21"/>
     </row>
-    <row r="70" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A70" s="24"/>
       <c r="B70" s="12"/>
       <c r="C70" s="14"/>
@@ -5820,7 +5851,7 @@
       <c r="J70" s="12"/>
       <c r="K70" s="21"/>
     </row>
-    <row r="71" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A71" s="24"/>
       <c r="B71" s="13"/>
       <c r="C71" s="14"/>
@@ -5836,7 +5867,7 @@
       <c r="J71" s="13"/>
       <c r="K71" s="16"/>
     </row>
-    <row r="72" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A72" s="24"/>
       <c r="B72" s="13"/>
       <c r="C72" s="14"/>
@@ -5852,7 +5883,7 @@
       <c r="J72" s="12"/>
       <c r="K72" s="21"/>
     </row>
-    <row r="73" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A73" s="24"/>
       <c r="B73" s="13"/>
       <c r="C73" s="14"/>
@@ -5868,7 +5899,7 @@
       <c r="J73" s="12"/>
       <c r="K73" s="21"/>
     </row>
-    <row r="74" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A74" s="24"/>
       <c r="B74" s="13"/>
       <c r="C74" s="14"/>
@@ -5884,7 +5915,7 @@
       <c r="J74" s="12"/>
       <c r="K74" s="21"/>
     </row>
-    <row r="75" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A75" s="24"/>
       <c r="B75" s="13"/>
       <c r="C75" s="14"/>
@@ -5900,7 +5931,7 @@
       <c r="J75" s="12"/>
       <c r="K75" s="21"/>
     </row>
-    <row r="76" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A76" s="24"/>
       <c r="B76" s="13"/>
       <c r="C76" s="14"/>
@@ -5916,7 +5947,7 @@
       <c r="J76" s="12"/>
       <c r="K76" s="21"/>
     </row>
-    <row r="77" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A77" s="24"/>
       <c r="B77" s="13"/>
       <c r="C77" s="14"/>
@@ -5932,7 +5963,7 @@
       <c r="J77" s="12"/>
       <c r="K77" s="21"/>
     </row>
-    <row r="78" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A78" s="24"/>
       <c r="B78" s="13"/>
       <c r="C78" s="14"/>
@@ -5948,7 +5979,7 @@
       <c r="J78" s="12"/>
       <c r="K78" s="21"/>
     </row>
-    <row r="79" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A79" s="24"/>
       <c r="B79" s="13"/>
       <c r="C79" s="14"/>
@@ -5964,7 +5995,7 @@
       <c r="J79" s="12"/>
       <c r="K79" s="21"/>
     </row>
-    <row r="80" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A80" s="24"/>
       <c r="B80" s="13"/>
       <c r="C80" s="14"/>
@@ -5980,7 +6011,7 @@
       <c r="J80" s="12"/>
       <c r="K80" s="21"/>
     </row>
-    <row r="81" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A81" s="24"/>
       <c r="B81" s="13"/>
       <c r="C81" s="14"/>
@@ -5996,7 +6027,7 @@
       <c r="J81" s="12"/>
       <c r="K81" s="21"/>
     </row>
-    <row r="82" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A82" s="24"/>
       <c r="B82" s="13"/>
       <c r="C82" s="14"/>
@@ -6012,7 +6043,7 @@
       <c r="J82" s="13"/>
       <c r="K82" s="16"/>
     </row>
-    <row r="83" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A83" s="24"/>
       <c r="B83" s="12"/>
       <c r="C83" s="14"/>
@@ -6028,7 +6059,7 @@
       <c r="J83" s="12"/>
       <c r="K83" s="21"/>
     </row>
-    <row r="84" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A84" s="24"/>
       <c r="B84" s="12"/>
       <c r="C84" s="14"/>
@@ -6044,7 +6075,7 @@
       <c r="J84" s="12"/>
       <c r="K84" s="21"/>
     </row>
-    <row r="85" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A85" s="24"/>
       <c r="B85" s="12"/>
       <c r="C85" s="14"/>
@@ -6060,7 +6091,7 @@
       <c r="J85" s="12"/>
       <c r="K85" s="21"/>
     </row>
-    <row r="86" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A86" s="24"/>
       <c r="B86" s="12"/>
       <c r="C86" s="14"/>
@@ -6076,7 +6107,7 @@
       <c r="J86" s="12"/>
       <c r="K86" s="21"/>
     </row>
-    <row r="87" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A87" s="24"/>
       <c r="B87" s="13"/>
       <c r="C87" s="14"/>
@@ -6108,10 +6139,10 @@
   </mergeCells>
   <phoneticPr fontId="5" type="noConversion"/>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2" xr:uid="{00000000-0002-0000-0100-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2">
       <formula1>"1 - Married (and not separated), 2 - Widowed (including living common law), 3 - Separated (including living common law), 4 - Divorced (including living common law), 5 - Single (including living common law)"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4" xr:uid="{00000000-0002-0000-0100-000001000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4">
       <formula1>"PERMANENT, CO-TERMINUS, CASUAL, JOBCON"</formula1>
     </dataValidation>
   </dataValidations>
@@ -6134,28 +6165,28 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L67"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="G17" sqref="G17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="21.33203125" customWidth="1"/>
-    <col min="2" max="2" width="20.6640625" customWidth="1"/>
-    <col min="4" max="4" width="15.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="26.109375" customWidth="1"/>
-    <col min="9" max="9" width="16.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.88671875" customWidth="1"/>
-    <col min="11" max="11" width="14.88671875" style="41" hidden="1" customWidth="1"/>
-    <col min="12" max="12" width="14.88671875" customWidth="1"/>
+    <col min="1" max="1" width="21.28515625" customWidth="1"/>
+    <col min="2" max="2" width="20.7109375" customWidth="1"/>
+    <col min="4" max="4" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="26.140625" customWidth="1"/>
+    <col min="9" max="9" width="16.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="41" hidden="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="D1" s="57" t="s">
         <v>33</v>
       </c>
@@ -6168,7 +6199,7 @@
       <c r="K1" s="58"/>
       <c r="L1" s="58"/>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="33" t="s">
         <v>24</v>
       </c>
@@ -6197,7 +6228,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" s="12">
         <v>4.5309999999999997</v>
       </c>
@@ -6221,17 +6252,17 @@
         <v>---</v>
       </c>
     </row>
-    <row r="4" spans="1:12" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:12" ht="14.45" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G4" s="34"/>
       <c r="J4" s="1" t="str">
         <f>IF(TEXT(J3,"D")=1,1,TEXT(J3,"D"))</f>
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="J5" s="1"/>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C6" s="42" t="s">
         <v>28</v>
       </c>
@@ -6252,7 +6283,7 @@
       <c r="K6" s="59"/>
       <c r="L6" s="59"/>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C7" s="41">
         <v>1</v>
       </c>
@@ -6279,7 +6310,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C8" s="41">
         <v>2</v>
       </c>
@@ -6305,7 +6336,7 @@
         <v>4.2000000000000003E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C9" s="41">
         <v>3</v>
       </c>
@@ -6331,7 +6362,7 @@
         <v>8.3000000000000004E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C10" s="41">
         <v>4</v>
       </c>
@@ -6357,7 +6388,7 @@
         <v>0.125</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C11" s="41">
         <v>5</v>
       </c>
@@ -6383,7 +6414,7 @@
         <v>0.16700000000000001</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C12" s="41">
         <v>6</v>
       </c>
@@ -6409,7 +6440,7 @@
         <v>0.20800000000000002</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C13" s="41">
         <v>7</v>
       </c>
@@ -6435,7 +6466,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C14" s="41">
         <v>8</v>
       </c>
@@ -6461,7 +6492,7 @@
         <v>0.29199999999999998</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C15" s="41">
         <v>9</v>
       </c>
@@ -6481,7 +6512,7 @@
         <v>0.33299999999999996</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C16" s="41">
         <v>10</v>
       </c>
@@ -6501,7 +6532,7 @@
         <v>0.37499999999999994</v>
       </c>
     </row>
-    <row r="17" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="17" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C17" s="41">
         <v>11</v>
       </c>
@@ -6521,7 +6552,7 @@
         <v>0.41699999999999993</v>
       </c>
     </row>
-    <row r="18" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C18" s="41">
         <v>12</v>
       </c>
@@ -6542,7 +6573,7 @@
         <v>0.45799999999999991</v>
       </c>
     </row>
-    <row r="19" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C19" s="41">
         <v>13</v>
       </c>
@@ -6563,7 +6594,7 @@
         <v>0.49999999999999989</v>
       </c>
     </row>
-    <row r="20" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C20" s="41">
         <v>14</v>
       </c>
@@ -6584,7 +6615,7 @@
         <v>0.54199999999999993</v>
       </c>
     </row>
-    <row r="21" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C21" s="41">
         <v>15</v>
       </c>
@@ -6605,7 +6636,7 @@
         <v>0.58299999999999996</v>
       </c>
     </row>
-    <row r="22" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C22" s="41">
         <v>16</v>
       </c>
@@ -6626,7 +6657,7 @@
         <v>0.625</v>
       </c>
     </row>
-    <row r="23" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C23" s="41">
         <v>17</v>
       </c>
@@ -6647,7 +6678,7 @@
         <v>0.66700000000000004</v>
       </c>
     </row>
-    <row r="24" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C24" s="41">
         <v>18</v>
       </c>
@@ -6668,7 +6699,7 @@
         <v>0.70800000000000007</v>
       </c>
     </row>
-    <row r="25" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C25" s="41">
         <v>19</v>
       </c>
@@ -6689,7 +6720,7 @@
         <v>0.75000000000000011</v>
       </c>
     </row>
-    <row r="26" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C26" s="41">
         <v>20</v>
       </c>
@@ -6710,7 +6741,7 @@
         <v>0.79200000000000015</v>
       </c>
     </row>
-    <row r="27" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C27" s="41">
         <v>21</v>
       </c>
@@ -6731,7 +6762,7 @@
         <v>0.83300000000000018</v>
       </c>
     </row>
-    <row r="28" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C28" s="41">
         <v>22</v>
       </c>
@@ -6752,7 +6783,7 @@
         <v>0.87500000000000022</v>
       </c>
     </row>
-    <row r="29" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C29" s="41">
         <v>23</v>
       </c>
@@ -6773,7 +6804,7 @@
         <v>0.91700000000000026</v>
       </c>
     </row>
-    <row r="30" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C30" s="41">
         <v>24</v>
       </c>
@@ -6794,7 +6825,7 @@
         <v>0.9580000000000003</v>
       </c>
     </row>
-    <row r="31" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C31" s="41">
         <v>25</v>
       </c>
@@ -6815,7 +6846,7 @@
         <v>1.0000000000000002</v>
       </c>
     </row>
-    <row r="32" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C32" s="41">
         <v>26</v>
       </c>
@@ -6836,7 +6867,7 @@
         <v>1.0420000000000003</v>
       </c>
     </row>
-    <row r="33" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C33" s="41">
         <v>27</v>
       </c>
@@ -6857,7 +6888,7 @@
         <v>1.0830000000000002</v>
       </c>
     </row>
-    <row r="34" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C34" s="41">
         <v>28</v>
       </c>
@@ -6878,7 +6909,7 @@
         <v>1.1250000000000002</v>
       </c>
     </row>
-    <row r="35" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C35" s="41">
         <v>29</v>
       </c>
@@ -6899,7 +6930,7 @@
         <v>1.1670000000000003</v>
       </c>
     </row>
-    <row r="36" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C36" s="41">
         <v>30</v>
       </c>
@@ -6920,7 +6951,7 @@
         <v>1.2080000000000002</v>
       </c>
     </row>
-    <row r="37" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C37" s="41">
         <v>31</v>
       </c>
@@ -6941,7 +6972,7 @@
         <v>1.2500000000000002</v>
       </c>
     </row>
-    <row r="38" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C38" s="41">
         <v>32</v>
       </c>
@@ -6950,7 +6981,7 @@
       </c>
       <c r="G38"/>
     </row>
-    <row r="39" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C39" s="41">
         <v>33</v>
       </c>
@@ -6959,7 +6990,7 @@
       </c>
       <c r="G39"/>
     </row>
-    <row r="40" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C40" s="41">
         <v>34</v>
       </c>
@@ -6968,7 +6999,7 @@
       </c>
       <c r="G40"/>
     </row>
-    <row r="41" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C41" s="41">
         <v>35</v>
       </c>
@@ -6977,7 +7008,7 @@
       </c>
       <c r="G41"/>
     </row>
-    <row r="42" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C42" s="41">
         <v>36</v>
       </c>
@@ -6986,7 +7017,7 @@
       </c>
       <c r="G42"/>
     </row>
-    <row r="43" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C43" s="41">
         <v>37</v>
       </c>
@@ -6995,7 +7026,7 @@
       </c>
       <c r="G43"/>
     </row>
-    <row r="44" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C44" s="41">
         <v>38</v>
       </c>
@@ -7004,7 +7035,7 @@
       </c>
       <c r="G44"/>
     </row>
-    <row r="45" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C45" s="41">
         <v>39</v>
       </c>
@@ -7013,7 +7044,7 @@
       </c>
       <c r="G45"/>
     </row>
-    <row r="46" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C46" s="41">
         <v>40</v>
       </c>
@@ -7022,7 +7053,7 @@
       </c>
       <c r="G46"/>
     </row>
-    <row r="47" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C47" s="41">
         <v>41</v>
       </c>
@@ -7031,7 +7062,7 @@
       </c>
       <c r="G47"/>
     </row>
-    <row r="48" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C48" s="41">
         <v>42</v>
       </c>
@@ -7040,7 +7071,7 @@
       </c>
       <c r="G48"/>
     </row>
-    <row r="49" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C49" s="41">
         <v>43</v>
       </c>
@@ -7049,7 +7080,7 @@
       </c>
       <c r="G49"/>
     </row>
-    <row r="50" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C50" s="41">
         <v>44</v>
       </c>
@@ -7058,7 +7089,7 @@
       </c>
       <c r="G50"/>
     </row>
-    <row r="51" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C51" s="41">
         <v>45</v>
       </c>
@@ -7067,7 +7098,7 @@
       </c>
       <c r="G51"/>
     </row>
-    <row r="52" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C52" s="41">
         <v>46</v>
       </c>
@@ -7076,7 +7107,7 @@
       </c>
       <c r="G52"/>
     </row>
-    <row r="53" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C53" s="41">
         <v>47</v>
       </c>
@@ -7085,7 +7116,7 @@
       </c>
       <c r="G53"/>
     </row>
-    <row r="54" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C54" s="41">
         <v>48</v>
       </c>
@@ -7094,7 +7125,7 @@
       </c>
       <c r="G54"/>
     </row>
-    <row r="55" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C55" s="41">
         <v>49</v>
       </c>
@@ -7103,7 +7134,7 @@
       </c>
       <c r="G55"/>
     </row>
-    <row r="56" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="56" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C56" s="41">
         <v>50</v>
       </c>
@@ -7112,7 +7143,7 @@
       </c>
       <c r="G56"/>
     </row>
-    <row r="57" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="57" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C57" s="41">
         <v>51</v>
       </c>
@@ -7121,7 +7152,7 @@
       </c>
       <c r="G57"/>
     </row>
-    <row r="58" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="58" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C58" s="41">
         <v>52</v>
       </c>
@@ -7130,7 +7161,7 @@
       </c>
       <c r="G58"/>
     </row>
-    <row r="59" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="59" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C59" s="41">
         <v>53</v>
       </c>
@@ -7139,7 +7170,7 @@
       </c>
       <c r="G59"/>
     </row>
-    <row r="60" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="60" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C60" s="41">
         <v>54</v>
       </c>
@@ -7148,7 +7179,7 @@
       </c>
       <c r="G60"/>
     </row>
-    <row r="61" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="61" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C61" s="41">
         <v>55</v>
       </c>
@@ -7157,7 +7188,7 @@
       </c>
       <c r="G61"/>
     </row>
-    <row r="62" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="62" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C62" s="41">
         <v>56</v>
       </c>
@@ -7166,7 +7197,7 @@
       </c>
       <c r="G62"/>
     </row>
-    <row r="63" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="63" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C63" s="41">
         <v>57</v>
       </c>
@@ -7175,7 +7206,7 @@
       </c>
       <c r="G63"/>
     </row>
-    <row r="64" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="64" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C64" s="41">
         <v>58</v>
       </c>
@@ -7184,7 +7215,7 @@
       </c>
       <c r="G64"/>
     </row>
-    <row r="65" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="65" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C65" s="41">
         <v>59</v>
       </c>
@@ -7193,7 +7224,7 @@
       </c>
       <c r="G65"/>
     </row>
-    <row r="66" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="66" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C66" s="41">
         <v>60</v>
       </c>
@@ -7202,7 +7233,7 @@
       </c>
       <c r="G66"/>
     </row>
-    <row r="67" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="67" spans="3:12" x14ac:dyDescent="0.25">
       <c r="J67" s="1"/>
       <c r="K67" s="1"/>
       <c r="L67" s="1"/>
